--- a/MiniProject/data/ENCODAT_ALCOHOL_2016_2017.xlsx
+++ b/MiniProject/data/ENCODAT_ALCOHOL_2016_2017.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\College\Computational Astrophysics\da2020-BubuDavid\Mini-project\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\College\Computational Astrophysics\da2020-BubuDavid\MiniProject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DB6445-52B8-42ED-8A47-0938FC422CC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918C9130-213E-4DDA-94C7-019497DA105E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" firstSheet="38" activeTab="42" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2557" uniqueCount="1438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2556" uniqueCount="1441">
   <si>
     <r>
       <rPr>
@@ -16671,6 +16671,15 @@
     <t>Encuestas Nacionales
 2011                                                                                                        2016
 17 años o menos              18 a 25 años                 26 a 65 años             17 años o menos       18 a 25 años         26 a 65 años Sexo                                        %                                      %                                     %                                     %                              %                             %</t>
+  </si>
+  <si>
+    <t>Distrito Federal</t>
+  </si>
+  <si>
+    <t>México</t>
+  </si>
+  <si>
+    <t>Durango</t>
   </si>
 </sst>
 </file>
@@ -16906,7 +16915,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="271">
+  <cellXfs count="272">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -17510,6 +17519,12 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="24"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="24"/>
     </xf>
@@ -17525,9 +17540,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="23"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="25"/>
     </xf>
@@ -17537,10 +17549,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="25"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -17548,6 +17560,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="12"/>
@@ -17561,25 +17576,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -17591,14 +17609,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -17618,12 +17642,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="15"/>
     </xf>
@@ -17632,6 +17650,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
@@ -17649,34 +17685,16 @@
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="12"/>
@@ -17693,6 +17711,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
     </xf>
@@ -17702,23 +17729,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="24"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -22052,28 +22064,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="269" t="s">
+      <c r="A1" s="202" t="s">
         <v>1396</v>
       </c>
-      <c r="B1" s="201"/>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="201"/>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201"/>
-      <c r="H1" s="201"/>
+      <c r="B1" s="203"/>
+      <c r="C1" s="203"/>
+      <c r="D1" s="203"/>
+      <c r="E1" s="203"/>
+      <c r="F1" s="203"/>
+      <c r="G1" s="203"/>
+      <c r="H1" s="203"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="202" t="s">
+      <c r="A2" s="204" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="202"/>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="202"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
+      <c r="B2" s="204"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
+      <c r="G2" s="204"/>
+      <c r="H2" s="204"/>
     </row>
     <row r="3" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -22130,7 +22142,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="268" t="s">
+      <c r="A6" s="201" t="s">
         <v>1395</v>
       </c>
       <c r="B6" s="7">
@@ -22176,7 +22188,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="268" t="s">
+      <c r="A8" s="201" t="s">
         <v>1394</v>
       </c>
       <c r="B8" s="7">
@@ -22228,23 +22240,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="217" t="s">
+      <c r="A1" s="219" t="s">
         <v>1400</v>
       </c>
-      <c r="B1" s="217"/>
-      <c r="C1" s="217"/>
-      <c r="D1" s="217"/>
-      <c r="E1" s="217"/>
-      <c r="F1" s="217"/>
+      <c r="B1" s="219"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="219"/>
+      <c r="F1" s="219"/>
     </row>
     <row r="2" spans="1:6" ht="107.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="211" t="s">
+      <c r="A2" s="225" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="212"/>
-      <c r="C2" s="212"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="213"/>
+      <c r="B2" s="213"/>
+      <c r="C2" s="213"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="214"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65" t="s">
@@ -22427,23 +22439,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="222" t="s">
+      <c r="A1" s="220" t="s">
         <v>1401</v>
       </c>
-      <c r="B1" s="222"/>
-      <c r="C1" s="222"/>
-      <c r="D1" s="222"/>
-      <c r="E1" s="222"/>
-      <c r="F1" s="222"/>
+      <c r="B1" s="220"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
     </row>
     <row r="2" spans="1:6" ht="104.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="211" t="s">
+      <c r="A2" s="225" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="212"/>
-      <c r="C2" s="212"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="213"/>
+      <c r="B2" s="213"/>
+      <c r="C2" s="213"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="214"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65" t="s">
@@ -22626,23 +22638,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="222" t="s">
+      <c r="A1" s="220" t="s">
         <v>1402</v>
       </c>
-      <c r="B1" s="222"/>
-      <c r="C1" s="222"/>
-      <c r="D1" s="222"/>
-      <c r="E1" s="222"/>
-      <c r="F1" s="222"/>
+      <c r="B1" s="220"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
     </row>
     <row r="2" spans="1:6" ht="107.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="211" t="s">
+      <c r="A2" s="225" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="212"/>
-      <c r="C2" s="212"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="213"/>
+      <c r="B2" s="213"/>
+      <c r="C2" s="213"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="214"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65" t="s">
@@ -22825,23 +22837,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="217" t="s">
+      <c r="A1" s="219" t="s">
         <v>1403</v>
       </c>
-      <c r="B1" s="217"/>
-      <c r="C1" s="217"/>
-      <c r="D1" s="217"/>
-      <c r="E1" s="217"/>
-      <c r="F1" s="217"/>
+      <c r="B1" s="219"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="219"/>
+      <c r="F1" s="219"/>
     </row>
     <row r="2" spans="1:6" ht="107.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="211" t="s">
+      <c r="A2" s="225" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="212"/>
-      <c r="C2" s="212"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="213"/>
+      <c r="B2" s="213"/>
+      <c r="C2" s="213"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="214"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65" t="s">
@@ -23024,23 +23036,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="217" t="s">
+      <c r="A1" s="219" t="s">
         <v>1404</v>
       </c>
-      <c r="B1" s="217"/>
-      <c r="C1" s="217"/>
-      <c r="D1" s="217"/>
-      <c r="E1" s="217"/>
-      <c r="F1" s="217"/>
+      <c r="B1" s="219"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="219"/>
+      <c r="F1" s="219"/>
     </row>
     <row r="2" spans="1:6" ht="107.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="211" t="s">
+      <c r="A2" s="225" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="212"/>
-      <c r="C2" s="212"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="213"/>
+      <c r="B2" s="213"/>
+      <c r="C2" s="213"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="214"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65" t="s">
@@ -23223,23 +23235,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="217" t="s">
+      <c r="A1" s="219" t="s">
         <v>1405</v>
       </c>
-      <c r="B1" s="217"/>
-      <c r="C1" s="217"/>
-      <c r="D1" s="217"/>
-      <c r="E1" s="217"/>
-      <c r="F1" s="217"/>
+      <c r="B1" s="219"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="219"/>
+      <c r="F1" s="219"/>
     </row>
     <row r="2" spans="1:6" ht="107.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="211" t="s">
+      <c r="A2" s="225" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="212"/>
-      <c r="C2" s="212"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="213"/>
+      <c r="B2" s="213"/>
+      <c r="C2" s="213"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="214"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65" t="s">
@@ -23422,23 +23434,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="217" t="s">
+      <c r="A1" s="219" t="s">
         <v>1406</v>
       </c>
-      <c r="B1" s="217"/>
-      <c r="C1" s="217"/>
-      <c r="D1" s="217"/>
-      <c r="E1" s="217"/>
-      <c r="F1" s="217"/>
+      <c r="B1" s="219"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="219"/>
+      <c r="F1" s="219"/>
     </row>
     <row r="2" spans="1:6" ht="107.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="211" t="s">
+      <c r="A2" s="225" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="212"/>
-      <c r="C2" s="212"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="213"/>
+      <c r="B2" s="213"/>
+      <c r="C2" s="213"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="214"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65" t="s">
@@ -23621,33 +23633,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="215" t="s">
         <v>1407</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="202" t="s">
+      <c r="A2" s="204" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="202"/>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="202"/>
-      <c r="F2" s="202"/>
+      <c r="B2" s="204"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
     </row>
     <row r="3" spans="1:6" ht="89.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="211" t="s">
+      <c r="A3" s="225" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="212"/>
-      <c r="C3" s="212"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="213"/>
+      <c r="B3" s="213"/>
+      <c r="C3" s="213"/>
+      <c r="D3" s="213"/>
+      <c r="E3" s="214"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65" t="s">
@@ -23831,33 +23843,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="215" t="s">
         <v>1408</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="202" t="s">
+      <c r="A2" s="204" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="202"/>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="202"/>
-      <c r="F2" s="202"/>
+      <c r="B2" s="204"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
     </row>
     <row r="3" spans="1:6" ht="89.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="211" t="s">
+      <c r="A3" s="225" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="212"/>
-      <c r="C3" s="212"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="213"/>
+      <c r="B3" s="213"/>
+      <c r="C3" s="213"/>
+      <c r="D3" s="213"/>
+      <c r="E3" s="214"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65" t="s">
@@ -24041,33 +24053,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="215" t="s">
         <v>1409</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="202" t="s">
+      <c r="A2" s="204" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="202"/>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="202"/>
-      <c r="F2" s="202"/>
+      <c r="B2" s="204"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
     </row>
     <row r="3" spans="1:6" ht="89.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="211" t="s">
+      <c r="A3" s="225" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="212"/>
-      <c r="C3" s="212"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="213"/>
+      <c r="B3" s="213"/>
+      <c r="C3" s="213"/>
+      <c r="D3" s="213"/>
+      <c r="E3" s="214"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65" t="s">
@@ -24253,39 +24265,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="201" t="s">
+      <c r="A1" s="203" t="s">
         <v>1397</v>
       </c>
-      <c r="B1" s="201"/>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="201"/>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201"/>
-      <c r="H1" s="201"/>
+      <c r="B1" s="203"/>
+      <c r="C1" s="203"/>
+      <c r="D1" s="203"/>
+      <c r="E1" s="203"/>
+      <c r="F1" s="203"/>
+      <c r="G1" s="203"/>
+      <c r="H1" s="203"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="202" t="s">
+      <c r="A2" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="202"/>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="202"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
+      <c r="B2" s="204"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
+      <c r="G2" s="204"/>
+      <c r="H2" s="204"/>
     </row>
     <row r="3" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="203" t="s">
+      <c r="A3" s="205" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="204"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="204"/>
-      <c r="G3" s="205"/>
+      <c r="B3" s="206"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="206"/>
+      <c r="G3" s="207"/>
     </row>
     <row r="4" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -24357,7 +24369,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="268" t="s">
+      <c r="A7" s="201" t="s">
         <v>1394</v>
       </c>
       <c r="B7" s="9">
@@ -24412,33 +24424,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="215" t="s">
         <v>1410</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="202" t="s">
+      <c r="A2" s="204" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="202"/>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="202"/>
-      <c r="F2" s="202"/>
+      <c r="B2" s="204"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
     </row>
     <row r="3" spans="1:6" ht="89.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="211" t="s">
+      <c r="A3" s="225" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="212"/>
-      <c r="C3" s="212"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="213"/>
+      <c r="B3" s="213"/>
+      <c r="C3" s="213"/>
+      <c r="D3" s="213"/>
+      <c r="E3" s="214"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65" t="s">
@@ -24622,33 +24634,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="215" t="s">
         <v>1411</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="202" t="s">
+      <c r="A2" s="204" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="202"/>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="202"/>
-      <c r="F2" s="202"/>
+      <c r="B2" s="204"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
     </row>
     <row r="3" spans="1:6" ht="89.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="211" t="s">
+      <c r="A3" s="225" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="212"/>
-      <c r="C3" s="212"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="213"/>
+      <c r="B3" s="213"/>
+      <c r="C3" s="213"/>
+      <c r="D3" s="213"/>
+      <c r="E3" s="214"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65" t="s">
@@ -24832,33 +24844,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="215" t="s">
         <v>1412</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="202" t="s">
+      <c r="A2" s="204" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="202"/>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="202"/>
-      <c r="F2" s="202"/>
+      <c r="B2" s="204"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
     </row>
     <row r="3" spans="1:6" ht="89.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="211" t="s">
+      <c r="A3" s="225" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="212"/>
-      <c r="C3" s="212"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="213"/>
+      <c r="B3" s="213"/>
+      <c r="C3" s="213"/>
+      <c r="D3" s="213"/>
+      <c r="E3" s="214"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65" t="s">
@@ -25014,14 +25026,14 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="206" t="s">
+      <c r="A13" s="211" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="206"/>
-      <c r="C13" s="206"/>
-      <c r="D13" s="206"/>
-      <c r="E13" s="206"/>
-      <c r="F13" s="206"/>
+      <c r="B13" s="211"/>
+      <c r="C13" s="211"/>
+      <c r="D13" s="211"/>
+      <c r="E13" s="211"/>
+      <c r="F13" s="211"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -25053,33 +25065,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="215" t="s">
         <v>1413</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="202" t="s">
+      <c r="A2" s="204" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="202"/>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="202"/>
-      <c r="F2" s="202"/>
+      <c r="B2" s="204"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
     </row>
     <row r="3" spans="1:6" ht="89.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="211" t="s">
+      <c r="A3" s="225" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="212"/>
-      <c r="C3" s="212"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="213"/>
+      <c r="B3" s="213"/>
+      <c r="C3" s="213"/>
+      <c r="D3" s="213"/>
+      <c r="E3" s="214"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65" t="s">
@@ -25263,33 +25275,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="215" t="s">
         <v>1414</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="202" t="s">
+      <c r="A2" s="204" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="202"/>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="202"/>
-      <c r="F2" s="202"/>
+      <c r="B2" s="204"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
     </row>
     <row r="3" spans="1:6" ht="89.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="211" t="s">
+      <c r="A3" s="225" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="212"/>
-      <c r="C3" s="212"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="213"/>
+      <c r="B3" s="213"/>
+      <c r="C3" s="213"/>
+      <c r="D3" s="213"/>
+      <c r="E3" s="214"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65" t="s">
@@ -25445,14 +25457,14 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="217" t="s">
+      <c r="A13" s="219" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="217"/>
-      <c r="C13" s="217"/>
-      <c r="D13" s="217"/>
-      <c r="E13" s="217"/>
-      <c r="F13" s="217"/>
+      <c r="B13" s="219"/>
+      <c r="C13" s="219"/>
+      <c r="D13" s="219"/>
+      <c r="E13" s="219"/>
+      <c r="F13" s="219"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -25485,36 +25497,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="215" t="s">
         <v>1415</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="202" t="s">
+      <c r="A2" s="204" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="202"/>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="202"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
+      <c r="B2" s="204"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
+      <c r="G2" s="204"/>
     </row>
     <row r="3" spans="1:7" ht="89.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="211" t="s">
+      <c r="A3" s="225" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="212"/>
-      <c r="C3" s="212"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="212"/>
-      <c r="F3" s="213"/>
+      <c r="B3" s="213"/>
+      <c r="C3" s="213"/>
+      <c r="D3" s="213"/>
+      <c r="E3" s="213"/>
+      <c r="F3" s="214"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65" t="s">
@@ -25526,10 +25538,10 @@
       <c r="C4" s="77">
         <v>2.8</v>
       </c>
-      <c r="D4" s="223">
+      <c r="D4" s="227">
         <v>1.9</v>
       </c>
-      <c r="E4" s="223"/>
+      <c r="E4" s="227"/>
       <c r="F4" s="69">
         <v>6.2</v>
       </c>
@@ -25544,10 +25556,10 @@
       <c r="C5" s="8">
         <v>2.4</v>
       </c>
-      <c r="D5" s="220">
+      <c r="D5" s="221">
         <v>1</v>
       </c>
-      <c r="E5" s="220"/>
+      <c r="E5" s="221"/>
       <c r="F5" s="27">
         <v>3.8</v>
       </c>
@@ -25562,10 +25574,10 @@
       <c r="C6" s="8">
         <v>4.3</v>
       </c>
-      <c r="D6" s="220">
+      <c r="D6" s="221">
         <v>1.3</v>
       </c>
-      <c r="E6" s="220"/>
+      <c r="E6" s="221"/>
       <c r="F6" s="27">
         <v>5.9</v>
       </c>
@@ -25580,10 +25592,10 @@
       <c r="C7" s="8">
         <v>1.7</v>
       </c>
-      <c r="D7" s="220">
+      <c r="D7" s="221">
         <v>1.8</v>
       </c>
-      <c r="E7" s="220"/>
+      <c r="E7" s="221"/>
       <c r="F7" s="27">
         <v>4.9000000000000004</v>
       </c>
@@ -25598,10 +25610,10 @@
       <c r="C8" s="8">
         <v>0.7</v>
       </c>
-      <c r="D8" s="220">
+      <c r="D8" s="221">
         <v>0.9</v>
       </c>
-      <c r="E8" s="220"/>
+      <c r="E8" s="221"/>
       <c r="F8" s="27">
         <v>2.1</v>
       </c>
@@ -25616,10 +25628,10 @@
       <c r="C9" s="8">
         <v>0.9</v>
       </c>
-      <c r="D9" s="220">
+      <c r="D9" s="221">
         <v>1</v>
       </c>
-      <c r="E9" s="220"/>
+      <c r="E9" s="221"/>
       <c r="F9" s="27">
         <v>3.2</v>
       </c>
@@ -25634,10 +25646,10 @@
       <c r="C10" s="8">
         <v>1.4</v>
       </c>
-      <c r="D10" s="220">
+      <c r="D10" s="221">
         <v>0.9</v>
       </c>
-      <c r="E10" s="220"/>
+      <c r="E10" s="221"/>
       <c r="F10" s="27">
         <v>2.6</v>
       </c>
@@ -25652,10 +25664,10 @@
       <c r="C11" s="8">
         <v>1.4</v>
       </c>
-      <c r="D11" s="220">
+      <c r="D11" s="221">
         <v>1.5</v>
       </c>
-      <c r="E11" s="220"/>
+      <c r="E11" s="221"/>
       <c r="F11" s="27">
         <v>3.5</v>
       </c>
@@ -25670,44 +25682,49 @@
       <c r="C12" s="82">
         <v>1.6</v>
       </c>
-      <c r="D12" s="224">
+      <c r="D12" s="226">
         <v>1.2</v>
       </c>
-      <c r="E12" s="224"/>
+      <c r="E12" s="226"/>
       <c r="F12" s="75">
         <v>3.5</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="409.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="217" t="s">
+      <c r="A13" s="219" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="217"/>
-      <c r="C13" s="217"/>
-      <c r="D13" s="217"/>
+      <c r="B13" s="219"/>
+      <c r="C13" s="219"/>
+      <c r="D13" s="219"/>
     </row>
     <row r="14" spans="1:7" ht="47.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="217"/>
-      <c r="B14" s="217"/>
-      <c r="C14" s="217"/>
-      <c r="D14" s="217"/>
+      <c r="A14" s="219"/>
+      <c r="B14" s="219"/>
+      <c r="C14" s="219"/>
+      <c r="D14" s="219"/>
     </row>
     <row r="15" spans="1:7" ht="409.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="222" t="s">
+      <c r="A15" s="220" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="222"/>
-      <c r="C15" s="222"/>
-      <c r="D15" s="222"/>
+      <c r="B15" s="220"/>
+      <c r="C15" s="220"/>
+      <c r="D15" s="220"/>
     </row>
     <row r="16" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="222"/>
-      <c r="B16" s="222"/>
-      <c r="C16" s="222"/>
-      <c r="D16" s="222"/>
+      <c r="A16" s="220"/>
+      <c r="B16" s="220"/>
+      <c r="C16" s="220"/>
+      <c r="D16" s="220"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="A13:D14"/>
@@ -25717,11 +25734,6 @@
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -25748,30 +25760,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="222" t="s">
+      <c r="A1" s="220" t="s">
         <v>1416</v>
       </c>
-      <c r="B1" s="222"/>
-      <c r="C1" s="222"/>
-      <c r="D1" s="222"/>
-      <c r="E1" s="222"/>
-      <c r="F1" s="222"/>
-      <c r="G1" s="222"/>
-      <c r="H1" s="222"/>
+      <c r="B1" s="220"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="220"/>
+      <c r="H1" s="220"/>
     </row>
     <row r="2" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="93"/>
       <c r="B2" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="225" t="s">
+      <c r="C2" s="228" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="225"/>
-      <c r="E2" s="212" t="s">
+      <c r="D2" s="228"/>
+      <c r="E2" s="213" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="212"/>
+      <c r="F2" s="213"/>
       <c r="G2" s="31" t="s">
         <v>77</v>
       </c>
@@ -25780,22 +25792,22 @@
       <c r="A3" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="226" t="s">
+      <c r="B3" s="229" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="229" t="s">
+      <c r="C3" s="231" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="229" t="s">
+      <c r="D3" s="231" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="229" t="s">
+      <c r="E3" s="231" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="229" t="s">
+      <c r="F3" s="231" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="229" t="s">
+      <c r="G3" s="231" t="s">
         <v>84</v>
       </c>
     </row>
@@ -25803,104 +25815,104 @@
       <c r="A4" s="96" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="227"/>
-      <c r="C4" s="217"/>
-      <c r="D4" s="217"/>
-      <c r="E4" s="217"/>
-      <c r="F4" s="217"/>
-      <c r="G4" s="217"/>
+      <c r="B4" s="230"/>
+      <c r="C4" s="219"/>
+      <c r="D4" s="219"/>
+      <c r="E4" s="219"/>
+      <c r="F4" s="219"/>
+      <c r="G4" s="219"/>
     </row>
     <row r="5" spans="1:8" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="227"/>
-      <c r="C5" s="217"/>
-      <c r="D5" s="217"/>
-      <c r="E5" s="217"/>
-      <c r="F5" s="217"/>
-      <c r="G5" s="217"/>
+      <c r="B5" s="230"/>
+      <c r="C5" s="219"/>
+      <c r="D5" s="219"/>
+      <c r="E5" s="219"/>
+      <c r="F5" s="219"/>
+      <c r="G5" s="219"/>
     </row>
     <row r="6" spans="1:8" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="227"/>
-      <c r="C6" s="217"/>
-      <c r="D6" s="217"/>
-      <c r="E6" s="217"/>
-      <c r="F6" s="217"/>
-      <c r="G6" s="217"/>
+      <c r="B6" s="230"/>
+      <c r="C6" s="219"/>
+      <c r="D6" s="219"/>
+      <c r="E6" s="219"/>
+      <c r="F6" s="219"/>
+      <c r="G6" s="219"/>
     </row>
     <row r="7" spans="1:8" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="227"/>
-      <c r="C7" s="217"/>
-      <c r="D7" s="217"/>
-      <c r="E7" s="217"/>
-      <c r="F7" s="217"/>
-      <c r="G7" s="217"/>
+      <c r="B7" s="230"/>
+      <c r="C7" s="219"/>
+      <c r="D7" s="219"/>
+      <c r="E7" s="219"/>
+      <c r="F7" s="219"/>
+      <c r="G7" s="219"/>
     </row>
     <row r="8" spans="1:8" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="227"/>
-      <c r="C8" s="217"/>
-      <c r="D8" s="217"/>
-      <c r="E8" s="217"/>
-      <c r="F8" s="217"/>
-      <c r="G8" s="217"/>
+      <c r="B8" s="230"/>
+      <c r="C8" s="219"/>
+      <c r="D8" s="219"/>
+      <c r="E8" s="219"/>
+      <c r="F8" s="219"/>
+      <c r="G8" s="219"/>
     </row>
     <row r="9" spans="1:8" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="227"/>
-      <c r="C9" s="217"/>
-      <c r="D9" s="217"/>
-      <c r="E9" s="217"/>
-      <c r="F9" s="217"/>
-      <c r="G9" s="217"/>
+      <c r="B9" s="230"/>
+      <c r="C9" s="219"/>
+      <c r="D9" s="219"/>
+      <c r="E9" s="219"/>
+      <c r="F9" s="219"/>
+      <c r="G9" s="219"/>
     </row>
     <row r="10" spans="1:8" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="228"/>
-      <c r="C10" s="230"/>
-      <c r="D10" s="230"/>
-      <c r="E10" s="230"/>
-      <c r="F10" s="230"/>
-      <c r="G10" s="230"/>
+      <c r="B10" s="232"/>
+      <c r="C10" s="233"/>
+      <c r="D10" s="233"/>
+      <c r="E10" s="233"/>
+      <c r="F10" s="233"/>
+      <c r="G10" s="233"/>
     </row>
     <row r="11" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="222" t="s">
+      <c r="A11" s="220" t="s">
         <v>1417</v>
       </c>
-      <c r="B11" s="222"/>
-      <c r="C11" s="222"/>
-      <c r="D11" s="222"/>
-      <c r="E11" s="222"/>
-      <c r="F11" s="222"/>
-      <c r="G11" s="222"/>
-      <c r="H11" s="222"/>
+      <c r="B11" s="220"/>
+      <c r="C11" s="220"/>
+      <c r="D11" s="220"/>
+      <c r="E11" s="220"/>
+      <c r="F11" s="220"/>
+      <c r="G11" s="220"/>
+      <c r="H11" s="220"/>
     </row>
     <row r="12" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="93"/>
       <c r="B12" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="225" t="s">
+      <c r="C12" s="228" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="225"/>
-      <c r="E12" s="212" t="s">
+      <c r="D12" s="228"/>
+      <c r="E12" s="213" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="212"/>
+      <c r="F12" s="213"/>
       <c r="G12" s="31" t="s">
         <v>77</v>
       </c>
@@ -25909,22 +25921,22 @@
       <c r="A13" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="226" t="s">
+      <c r="B13" s="229" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="229" t="s">
+      <c r="C13" s="231" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="229" t="s">
+      <c r="D13" s="231" t="s">
         <v>90</v>
       </c>
-      <c r="E13" s="229" t="s">
+      <c r="E13" s="231" t="s">
         <v>91</v>
       </c>
-      <c r="F13" s="229" t="s">
+      <c r="F13" s="231" t="s">
         <v>92</v>
       </c>
-      <c r="G13" s="229" t="s">
+      <c r="G13" s="231" t="s">
         <v>93</v>
       </c>
     </row>
@@ -25932,81 +25944,90 @@
       <c r="A14" s="96" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="227"/>
-      <c r="C14" s="217"/>
-      <c r="D14" s="217"/>
-      <c r="E14" s="217"/>
-      <c r="F14" s="217"/>
-      <c r="G14" s="217"/>
+      <c r="B14" s="230"/>
+      <c r="C14" s="219"/>
+      <c r="D14" s="219"/>
+      <c r="E14" s="219"/>
+      <c r="F14" s="219"/>
+      <c r="G14" s="219"/>
     </row>
     <row r="15" spans="1:8" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="227"/>
-      <c r="C15" s="217"/>
-      <c r="D15" s="217"/>
-      <c r="E15" s="217"/>
-      <c r="F15" s="217"/>
-      <c r="G15" s="217"/>
+      <c r="B15" s="230"/>
+      <c r="C15" s="219"/>
+      <c r="D15" s="219"/>
+      <c r="E15" s="219"/>
+      <c r="F15" s="219"/>
+      <c r="G15" s="219"/>
     </row>
     <row r="16" spans="1:8" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="227"/>
-      <c r="C16" s="217"/>
-      <c r="D16" s="217"/>
-      <c r="E16" s="217"/>
-      <c r="F16" s="217"/>
-      <c r="G16" s="217"/>
+      <c r="B16" s="230"/>
+      <c r="C16" s="219"/>
+      <c r="D16" s="219"/>
+      <c r="E16" s="219"/>
+      <c r="F16" s="219"/>
+      <c r="G16" s="219"/>
     </row>
     <row r="17" spans="1:7" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="227"/>
-      <c r="C17" s="217"/>
-      <c r="D17" s="217"/>
-      <c r="E17" s="217"/>
-      <c r="F17" s="217"/>
-      <c r="G17" s="217"/>
+      <c r="B17" s="230"/>
+      <c r="C17" s="219"/>
+      <c r="D17" s="219"/>
+      <c r="E17" s="219"/>
+      <c r="F17" s="219"/>
+      <c r="G17" s="219"/>
     </row>
     <row r="18" spans="1:7" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="227"/>
-      <c r="C18" s="217"/>
-      <c r="D18" s="217"/>
-      <c r="E18" s="217"/>
-      <c r="F18" s="217"/>
-      <c r="G18" s="217"/>
+      <c r="B18" s="230"/>
+      <c r="C18" s="219"/>
+      <c r="D18" s="219"/>
+      <c r="E18" s="219"/>
+      <c r="F18" s="219"/>
+      <c r="G18" s="219"/>
     </row>
     <row r="19" spans="1:7" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="227"/>
-      <c r="C19" s="217"/>
-      <c r="D19" s="217"/>
-      <c r="E19" s="217"/>
-      <c r="F19" s="217"/>
-      <c r="G19" s="217"/>
+      <c r="B19" s="230"/>
+      <c r="C19" s="219"/>
+      <c r="D19" s="219"/>
+      <c r="E19" s="219"/>
+      <c r="F19" s="219"/>
+      <c r="G19" s="219"/>
     </row>
     <row r="20" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="227"/>
-      <c r="C20" s="217"/>
-      <c r="D20" s="217"/>
-      <c r="E20" s="217"/>
-      <c r="F20" s="217"/>
-      <c r="G20" s="217"/>
+      <c r="B20" s="230"/>
+      <c r="C20" s="219"/>
+      <c r="D20" s="219"/>
+      <c r="E20" s="219"/>
+      <c r="F20" s="219"/>
+      <c r="G20" s="219"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:B10"/>
+    <mergeCell ref="C3:C10"/>
+    <mergeCell ref="D3:D10"/>
+    <mergeCell ref="E3:E10"/>
+    <mergeCell ref="F3:F10"/>
+    <mergeCell ref="G3:G10"/>
     <mergeCell ref="A11:H11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="E12:F12"/>
@@ -26016,15 +26037,6 @@
     <mergeCell ref="E13:E20"/>
     <mergeCell ref="F13:F20"/>
     <mergeCell ref="G13:G20"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:B10"/>
-    <mergeCell ref="C3:C10"/>
-    <mergeCell ref="D3:D10"/>
-    <mergeCell ref="E3:E10"/>
-    <mergeCell ref="F3:F10"/>
-    <mergeCell ref="G3:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -26055,36 +26067,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="222" t="s">
+      <c r="A1" s="220" t="s">
         <v>1418</v>
       </c>
-      <c r="B1" s="222"/>
-      <c r="C1" s="222"/>
-      <c r="D1" s="222"/>
-      <c r="E1" s="222"/>
-      <c r="F1" s="222"/>
-      <c r="G1" s="222"/>
-      <c r="H1" s="222"/>
-      <c r="I1" s="222"/>
-      <c r="J1" s="222"/>
-      <c r="K1" s="222"/>
+      <c r="B1" s="220"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="220"/>
+      <c r="H1" s="220"/>
+      <c r="I1" s="220"/>
+      <c r="J1" s="220"/>
+      <c r="K1" s="220"/>
     </row>
     <row r="2" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="93"/>
       <c r="B2" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="225" t="s">
+      <c r="C2" s="228" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="225"/>
-      <c r="E2" s="225"/>
-      <c r="F2" s="225"/>
-      <c r="G2" s="212" t="s">
+      <c r="D2" s="228"/>
+      <c r="E2" s="228"/>
+      <c r="F2" s="228"/>
+      <c r="G2" s="213" t="s">
         <v>76</v>
       </c>
-      <c r="H2" s="212"/>
-      <c r="I2" s="212"/>
+      <c r="H2" s="213"/>
+      <c r="I2" s="213"/>
       <c r="J2" s="31" t="s">
         <v>77</v>
       </c>
@@ -26093,25 +26105,25 @@
       <c r="A3" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="231" t="s">
+      <c r="B3" s="236" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="229" t="s">
+      <c r="C3" s="231" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="229"/>
-      <c r="E3" s="229" t="s">
+      <c r="D3" s="231"/>
+      <c r="E3" s="231" t="s">
         <v>97</v>
       </c>
-      <c r="F3" s="229"/>
-      <c r="G3" s="234" t="s">
+      <c r="F3" s="231"/>
+      <c r="G3" s="239" t="s">
         <v>98</v>
       </c>
-      <c r="H3" s="234"/>
-      <c r="I3" s="229" t="s">
+      <c r="H3" s="239"/>
+      <c r="I3" s="231" t="s">
         <v>99</v>
       </c>
-      <c r="J3" s="229" t="s">
+      <c r="J3" s="231" t="s">
         <v>100</v>
       </c>
     </row>
@@ -26119,131 +26131,131 @@
       <c r="A4" s="96" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="232"/>
-      <c r="C4" s="217"/>
-      <c r="D4" s="217"/>
-      <c r="E4" s="217"/>
-      <c r="F4" s="217"/>
-      <c r="G4" s="235"/>
-      <c r="H4" s="235"/>
-      <c r="I4" s="217"/>
-      <c r="J4" s="217"/>
+      <c r="B4" s="237"/>
+      <c r="C4" s="219"/>
+      <c r="D4" s="219"/>
+      <c r="E4" s="219"/>
+      <c r="F4" s="219"/>
+      <c r="G4" s="240"/>
+      <c r="H4" s="240"/>
+      <c r="I4" s="219"/>
+      <c r="J4" s="219"/>
     </row>
     <row r="5" spans="1:11" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="232"/>
-      <c r="C5" s="217"/>
-      <c r="D5" s="217"/>
-      <c r="E5" s="217"/>
-      <c r="F5" s="217"/>
-      <c r="G5" s="235"/>
-      <c r="H5" s="235"/>
-      <c r="I5" s="217"/>
-      <c r="J5" s="217"/>
+      <c r="B5" s="237"/>
+      <c r="C5" s="219"/>
+      <c r="D5" s="219"/>
+      <c r="E5" s="219"/>
+      <c r="F5" s="219"/>
+      <c r="G5" s="240"/>
+      <c r="H5" s="240"/>
+      <c r="I5" s="219"/>
+      <c r="J5" s="219"/>
     </row>
     <row r="6" spans="1:11" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="232"/>
-      <c r="C6" s="217"/>
-      <c r="D6" s="217"/>
-      <c r="E6" s="217"/>
-      <c r="F6" s="217"/>
-      <c r="G6" s="235"/>
-      <c r="H6" s="235"/>
-      <c r="I6" s="217"/>
-      <c r="J6" s="217"/>
+      <c r="B6" s="237"/>
+      <c r="C6" s="219"/>
+      <c r="D6" s="219"/>
+      <c r="E6" s="219"/>
+      <c r="F6" s="219"/>
+      <c r="G6" s="240"/>
+      <c r="H6" s="240"/>
+      <c r="I6" s="219"/>
+      <c r="J6" s="219"/>
     </row>
     <row r="7" spans="1:11" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="232"/>
-      <c r="C7" s="217"/>
-      <c r="D7" s="217"/>
-      <c r="E7" s="217"/>
-      <c r="F7" s="217"/>
-      <c r="G7" s="235"/>
-      <c r="H7" s="235"/>
-      <c r="I7" s="217"/>
-      <c r="J7" s="217"/>
+      <c r="B7" s="237"/>
+      <c r="C7" s="219"/>
+      <c r="D7" s="219"/>
+      <c r="E7" s="219"/>
+      <c r="F7" s="219"/>
+      <c r="G7" s="240"/>
+      <c r="H7" s="240"/>
+      <c r="I7" s="219"/>
+      <c r="J7" s="219"/>
     </row>
     <row r="8" spans="1:11" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="232"/>
-      <c r="C8" s="217"/>
-      <c r="D8" s="217"/>
-      <c r="E8" s="217"/>
-      <c r="F8" s="217"/>
-      <c r="G8" s="235"/>
-      <c r="H8" s="235"/>
-      <c r="I8" s="217"/>
-      <c r="J8" s="217"/>
+      <c r="B8" s="237"/>
+      <c r="C8" s="219"/>
+      <c r="D8" s="219"/>
+      <c r="E8" s="219"/>
+      <c r="F8" s="219"/>
+      <c r="G8" s="240"/>
+      <c r="H8" s="240"/>
+      <c r="I8" s="219"/>
+      <c r="J8" s="219"/>
     </row>
     <row r="9" spans="1:11" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="232"/>
-      <c r="C9" s="217"/>
-      <c r="D9" s="217"/>
-      <c r="E9" s="217"/>
-      <c r="F9" s="217"/>
-      <c r="G9" s="235"/>
-      <c r="H9" s="235"/>
-      <c r="I9" s="217"/>
-      <c r="J9" s="217"/>
+      <c r="B9" s="237"/>
+      <c r="C9" s="219"/>
+      <c r="D9" s="219"/>
+      <c r="E9" s="219"/>
+      <c r="F9" s="219"/>
+      <c r="G9" s="240"/>
+      <c r="H9" s="240"/>
+      <c r="I9" s="219"/>
+      <c r="J9" s="219"/>
     </row>
     <row r="10" spans="1:11" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="233"/>
-      <c r="C10" s="230"/>
-      <c r="D10" s="230"/>
-      <c r="E10" s="230"/>
-      <c r="F10" s="230"/>
-      <c r="G10" s="236"/>
-      <c r="H10" s="236"/>
-      <c r="I10" s="230"/>
-      <c r="J10" s="230"/>
+      <c r="B10" s="238"/>
+      <c r="C10" s="233"/>
+      <c r="D10" s="233"/>
+      <c r="E10" s="233"/>
+      <c r="F10" s="233"/>
+      <c r="G10" s="241"/>
+      <c r="H10" s="241"/>
+      <c r="I10" s="233"/>
+      <c r="J10" s="233"/>
     </row>
     <row r="11" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="222" t="s">
+      <c r="A11" s="220" t="s">
         <v>1419</v>
       </c>
-      <c r="B11" s="222"/>
-      <c r="C11" s="222"/>
-      <c r="D11" s="222"/>
-      <c r="E11" s="222"/>
-      <c r="F11" s="222"/>
-      <c r="G11" s="222"/>
-      <c r="H11" s="222"/>
-      <c r="I11" s="222"/>
-      <c r="J11" s="222"/>
-      <c r="K11" s="222"/>
+      <c r="B11" s="220"/>
+      <c r="C11" s="220"/>
+      <c r="D11" s="220"/>
+      <c r="E11" s="220"/>
+      <c r="F11" s="220"/>
+      <c r="G11" s="220"/>
+      <c r="H11" s="220"/>
+      <c r="I11" s="220"/>
+      <c r="J11" s="220"/>
+      <c r="K11" s="220"/>
     </row>
     <row r="12" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="93"/>
-      <c r="B12" s="237" t="s">
+      <c r="B12" s="234" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="238"/>
-      <c r="D12" s="225" t="s">
+      <c r="C12" s="235"/>
+      <c r="D12" s="228" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="225"/>
-      <c r="F12" s="225"/>
-      <c r="G12" s="225"/>
-      <c r="H12" s="212" t="s">
+      <c r="E12" s="228"/>
+      <c r="F12" s="228"/>
+      <c r="G12" s="228"/>
+      <c r="H12" s="213" t="s">
         <v>76</v>
       </c>
-      <c r="I12" s="212"/>
+      <c r="I12" s="213"/>
       <c r="J12" s="31" t="s">
         <v>77</v>
       </c>
@@ -26252,25 +26264,25 @@
       <c r="A13" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="226" t="s">
+      <c r="B13" s="229" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="229"/>
-      <c r="D13" s="229" t="s">
+      <c r="C13" s="231"/>
+      <c r="D13" s="231" t="s">
         <v>102</v>
       </c>
-      <c r="E13" s="229"/>
-      <c r="F13" s="229" t="s">
+      <c r="E13" s="231"/>
+      <c r="F13" s="231" t="s">
         <v>103</v>
       </c>
-      <c r="G13" s="229"/>
-      <c r="H13" s="229" t="s">
+      <c r="G13" s="231"/>
+      <c r="H13" s="231" t="s">
         <v>104</v>
       </c>
-      <c r="I13" s="229" t="s">
+      <c r="I13" s="231" t="s">
         <v>105</v>
       </c>
-      <c r="J13" s="229" t="s">
+      <c r="J13" s="231" t="s">
         <v>106</v>
       </c>
     </row>
@@ -26278,102 +26290,111 @@
       <c r="A14" s="96" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="227"/>
-      <c r="C14" s="217"/>
-      <c r="D14" s="217"/>
-      <c r="E14" s="217"/>
-      <c r="F14" s="217"/>
-      <c r="G14" s="217"/>
-      <c r="H14" s="217"/>
-      <c r="I14" s="217"/>
-      <c r="J14" s="217"/>
+      <c r="B14" s="230"/>
+      <c r="C14" s="219"/>
+      <c r="D14" s="219"/>
+      <c r="E14" s="219"/>
+      <c r="F14" s="219"/>
+      <c r="G14" s="219"/>
+      <c r="H14" s="219"/>
+      <c r="I14" s="219"/>
+      <c r="J14" s="219"/>
     </row>
     <row r="15" spans="1:11" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="227"/>
-      <c r="C15" s="217"/>
-      <c r="D15" s="217"/>
-      <c r="E15" s="217"/>
-      <c r="F15" s="217"/>
-      <c r="G15" s="217"/>
-      <c r="H15" s="217"/>
-      <c r="I15" s="217"/>
-      <c r="J15" s="217"/>
+      <c r="B15" s="230"/>
+      <c r="C15" s="219"/>
+      <c r="D15" s="219"/>
+      <c r="E15" s="219"/>
+      <c r="F15" s="219"/>
+      <c r="G15" s="219"/>
+      <c r="H15" s="219"/>
+      <c r="I15" s="219"/>
+      <c r="J15" s="219"/>
     </row>
     <row r="16" spans="1:11" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="227"/>
-      <c r="C16" s="217"/>
-      <c r="D16" s="217"/>
-      <c r="E16" s="217"/>
-      <c r="F16" s="217"/>
-      <c r="G16" s="217"/>
-      <c r="H16" s="217"/>
-      <c r="I16" s="217"/>
-      <c r="J16" s="217"/>
+      <c r="B16" s="230"/>
+      <c r="C16" s="219"/>
+      <c r="D16" s="219"/>
+      <c r="E16" s="219"/>
+      <c r="F16" s="219"/>
+      <c r="G16" s="219"/>
+      <c r="H16" s="219"/>
+      <c r="I16" s="219"/>
+      <c r="J16" s="219"/>
     </row>
     <row r="17" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="227"/>
-      <c r="C17" s="217"/>
-      <c r="D17" s="217"/>
-      <c r="E17" s="217"/>
-      <c r="F17" s="217"/>
-      <c r="G17" s="217"/>
-      <c r="H17" s="217"/>
-      <c r="I17" s="217"/>
-      <c r="J17" s="217"/>
+      <c r="B17" s="230"/>
+      <c r="C17" s="219"/>
+      <c r="D17" s="219"/>
+      <c r="E17" s="219"/>
+      <c r="F17" s="219"/>
+      <c r="G17" s="219"/>
+      <c r="H17" s="219"/>
+      <c r="I17" s="219"/>
+      <c r="J17" s="219"/>
     </row>
     <row r="18" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="227"/>
-      <c r="C18" s="217"/>
-      <c r="D18" s="217"/>
-      <c r="E18" s="217"/>
-      <c r="F18" s="217"/>
-      <c r="G18" s="217"/>
-      <c r="H18" s="217"/>
-      <c r="I18" s="217"/>
-      <c r="J18" s="217"/>
+      <c r="B18" s="230"/>
+      <c r="C18" s="219"/>
+      <c r="D18" s="219"/>
+      <c r="E18" s="219"/>
+      <c r="F18" s="219"/>
+      <c r="G18" s="219"/>
+      <c r="H18" s="219"/>
+      <c r="I18" s="219"/>
+      <c r="J18" s="219"/>
     </row>
     <row r="19" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="227"/>
-      <c r="C19" s="217"/>
-      <c r="D19" s="217"/>
-      <c r="E19" s="217"/>
-      <c r="F19" s="217"/>
-      <c r="G19" s="217"/>
-      <c r="H19" s="217"/>
-      <c r="I19" s="217"/>
-      <c r="J19" s="217"/>
+      <c r="B19" s="230"/>
+      <c r="C19" s="219"/>
+      <c r="D19" s="219"/>
+      <c r="E19" s="219"/>
+      <c r="F19" s="219"/>
+      <c r="G19" s="219"/>
+      <c r="H19" s="219"/>
+      <c r="I19" s="219"/>
+      <c r="J19" s="219"/>
     </row>
     <row r="20" spans="1:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="227"/>
-      <c r="C20" s="217"/>
-      <c r="D20" s="217"/>
-      <c r="E20" s="217"/>
-      <c r="F20" s="217"/>
-      <c r="G20" s="217"/>
-      <c r="H20" s="217"/>
-      <c r="I20" s="217"/>
-      <c r="J20" s="217"/>
+      <c r="B20" s="230"/>
+      <c r="C20" s="219"/>
+      <c r="D20" s="219"/>
+      <c r="E20" s="219"/>
+      <c r="F20" s="219"/>
+      <c r="G20" s="219"/>
+      <c r="H20" s="219"/>
+      <c r="I20" s="219"/>
+      <c r="J20" s="219"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B3:B10"/>
+    <mergeCell ref="C3:D10"/>
+    <mergeCell ref="E3:F10"/>
+    <mergeCell ref="G3:H10"/>
+    <mergeCell ref="I3:I10"/>
+    <mergeCell ref="J3:J10"/>
     <mergeCell ref="A11:K11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:G12"/>
@@ -26384,15 +26405,6 @@
     <mergeCell ref="H13:H20"/>
     <mergeCell ref="I13:I20"/>
     <mergeCell ref="J13:J20"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="B3:B10"/>
-    <mergeCell ref="C3:D10"/>
-    <mergeCell ref="E3:F10"/>
-    <mergeCell ref="G3:H10"/>
-    <mergeCell ref="I3:I10"/>
-    <mergeCell ref="J3:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -26420,30 +26432,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="222" t="s">
+      <c r="A1" s="220" t="s">
         <v>1420</v>
       </c>
-      <c r="B1" s="222"/>
-      <c r="C1" s="222"/>
-      <c r="D1" s="222"/>
-      <c r="E1" s="222"/>
-      <c r="F1" s="222"/>
-      <c r="G1" s="222"/>
-      <c r="H1" s="222"/>
+      <c r="B1" s="220"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="220"/>
+      <c r="H1" s="220"/>
     </row>
     <row r="2" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="93"/>
       <c r="B2" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="225" t="s">
+      <c r="C2" s="228" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="225"/>
-      <c r="E2" s="212" t="s">
+      <c r="D2" s="228"/>
+      <c r="E2" s="213" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="212"/>
+      <c r="F2" s="213"/>
       <c r="G2" s="31" t="s">
         <v>77</v>
       </c>
@@ -26452,22 +26464,22 @@
       <c r="A3" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="226" t="s">
+      <c r="B3" s="229" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="229" t="s">
+      <c r="C3" s="231" t="s">
         <v>108</v>
       </c>
-      <c r="D3" s="229" t="s">
+      <c r="D3" s="231" t="s">
         <v>109</v>
       </c>
-      <c r="E3" s="229" t="s">
+      <c r="E3" s="231" t="s">
         <v>110</v>
       </c>
-      <c r="F3" s="229" t="s">
+      <c r="F3" s="231" t="s">
         <v>111</v>
       </c>
-      <c r="G3" s="229" t="s">
+      <c r="G3" s="231" t="s">
         <v>112</v>
       </c>
     </row>
@@ -26475,78 +26487,78 @@
       <c r="A4" s="96" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="227"/>
-      <c r="C4" s="217"/>
-      <c r="D4" s="217"/>
-      <c r="E4" s="217"/>
-      <c r="F4" s="217"/>
-      <c r="G4" s="217"/>
+      <c r="B4" s="230"/>
+      <c r="C4" s="219"/>
+      <c r="D4" s="219"/>
+      <c r="E4" s="219"/>
+      <c r="F4" s="219"/>
+      <c r="G4" s="219"/>
     </row>
     <row r="5" spans="1:8" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="227"/>
-      <c r="C5" s="217"/>
-      <c r="D5" s="217"/>
-      <c r="E5" s="217"/>
-      <c r="F5" s="217"/>
-      <c r="G5" s="217"/>
+      <c r="B5" s="230"/>
+      <c r="C5" s="219"/>
+      <c r="D5" s="219"/>
+      <c r="E5" s="219"/>
+      <c r="F5" s="219"/>
+      <c r="G5" s="219"/>
     </row>
     <row r="6" spans="1:8" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="227"/>
-      <c r="C6" s="217"/>
-      <c r="D6" s="217"/>
-      <c r="E6" s="217"/>
-      <c r="F6" s="217"/>
-      <c r="G6" s="217"/>
+      <c r="B6" s="230"/>
+      <c r="C6" s="219"/>
+      <c r="D6" s="219"/>
+      <c r="E6" s="219"/>
+      <c r="F6" s="219"/>
+      <c r="G6" s="219"/>
     </row>
     <row r="7" spans="1:8" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="227"/>
-      <c r="C7" s="217"/>
-      <c r="D7" s="217"/>
-      <c r="E7" s="217"/>
-      <c r="F7" s="217"/>
-      <c r="G7" s="217"/>
+      <c r="B7" s="230"/>
+      <c r="C7" s="219"/>
+      <c r="D7" s="219"/>
+      <c r="E7" s="219"/>
+      <c r="F7" s="219"/>
+      <c r="G7" s="219"/>
     </row>
     <row r="8" spans="1:8" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="227"/>
-      <c r="C8" s="217"/>
-      <c r="D8" s="217"/>
-      <c r="E8" s="217"/>
-      <c r="F8" s="217"/>
-      <c r="G8" s="217"/>
+      <c r="B8" s="230"/>
+      <c r="C8" s="219"/>
+      <c r="D8" s="219"/>
+      <c r="E8" s="219"/>
+      <c r="F8" s="219"/>
+      <c r="G8" s="219"/>
     </row>
     <row r="9" spans="1:8" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="227"/>
-      <c r="C9" s="217"/>
-      <c r="D9" s="217"/>
-      <c r="E9" s="217"/>
-      <c r="F9" s="217"/>
-      <c r="G9" s="217"/>
+      <c r="B9" s="230"/>
+      <c r="C9" s="219"/>
+      <c r="D9" s="219"/>
+      <c r="E9" s="219"/>
+      <c r="F9" s="219"/>
+      <c r="G9" s="219"/>
     </row>
     <row r="10" spans="1:8" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="227"/>
-      <c r="C10" s="217"/>
-      <c r="D10" s="217"/>
-      <c r="E10" s="217"/>
-      <c r="F10" s="217"/>
-      <c r="G10" s="217"/>
+      <c r="B10" s="230"/>
+      <c r="C10" s="219"/>
+      <c r="D10" s="219"/>
+      <c r="E10" s="219"/>
+      <c r="F10" s="219"/>
+      <c r="G10" s="219"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -26584,37 +26596,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="239" t="s">
+      <c r="A1" s="242" t="s">
         <v>1421</v>
       </c>
-      <c r="B1" s="239"/>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
-      <c r="E1" s="239"/>
-      <c r="F1" s="239"/>
+      <c r="B1" s="242"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="242"/>
+      <c r="F1" s="242"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="240" t="s">
+      <c r="A2" s="243" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="240"/>
-      <c r="C2" s="240"/>
-      <c r="D2" s="240"/>
-      <c r="E2" s="240"/>
-      <c r="F2" s="240"/>
-    </row>
-    <row r="3" spans="1:6" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="243"/>
+      <c r="C2" s="243"/>
+      <c r="D2" s="243"/>
+      <c r="E2" s="243"/>
+      <c r="F2" s="243"/>
+    </row>
+    <row r="3" spans="1:6" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="98" t="s">
         <v>114</v>
       </c>
       <c r="B3" s="99" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="241" t="s">
+      <c r="C3" s="244" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="241"/>
-      <c r="E3" s="241"/>
+      <c r="D3" s="244"/>
+      <c r="E3" s="244"/>
     </row>
     <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="100" t="s">
@@ -27209,39 +27221,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="201" t="s">
+      <c r="A1" s="203" t="s">
         <v>1398</v>
       </c>
-      <c r="B1" s="201"/>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="201"/>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201"/>
-      <c r="H1" s="201"/>
+      <c r="B1" s="203"/>
+      <c r="C1" s="203"/>
+      <c r="D1" s="203"/>
+      <c r="E1" s="203"/>
+      <c r="F1" s="203"/>
+      <c r="G1" s="203"/>
+      <c r="H1" s="203"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="202" t="s">
+      <c r="A2" s="204" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="202"/>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="202"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
+      <c r="B2" s="204"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
+      <c r="G2" s="204"/>
+      <c r="H2" s="204"/>
     </row>
     <row r="3" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="207" t="s">
+      <c r="A3" s="208" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="208"/>
-      <c r="C3" s="208"/>
-      <c r="D3" s="208"/>
-      <c r="E3" s="208"/>
-      <c r="F3" s="208"/>
-      <c r="G3" s="209"/>
+      <c r="B3" s="209"/>
+      <c r="C3" s="209"/>
+      <c r="D3" s="209"/>
+      <c r="E3" s="209"/>
+      <c r="F3" s="209"/>
+      <c r="G3" s="210"/>
     </row>
     <row r="4" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -27369,16 +27381,16 @@
       <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="206" t="s">
+      <c r="A11" s="211" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="206"/>
-      <c r="C11" s="206"/>
-      <c r="D11" s="206"/>
-      <c r="E11" s="206"/>
-      <c r="F11" s="206"/>
-      <c r="G11" s="206"/>
-      <c r="H11" s="206"/>
+      <c r="B11" s="211"/>
+      <c r="C11" s="211"/>
+      <c r="D11" s="211"/>
+      <c r="E11" s="211"/>
+      <c r="F11" s="211"/>
+      <c r="G11" s="211"/>
+      <c r="H11" s="211"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -27410,38 +27422,38 @@
     <col min="7" max="7" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="111" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="242" t="s">
+      <c r="B1" s="251" t="s">
         <v>1408</v>
       </c>
-      <c r="C1" s="242"/>
-      <c r="D1" s="242"/>
-      <c r="E1" s="242"/>
-      <c r="F1" s="242"/>
-      <c r="G1" s="242"/>
-    </row>
-    <row r="2" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="243" t="s">
+      <c r="C1" s="251"/>
+      <c r="D1" s="251"/>
+      <c r="E1" s="251"/>
+      <c r="F1" s="251"/>
+      <c r="G1" s="251"/>
+    </row>
+    <row r="2" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="252" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="244"/>
+      <c r="B2" s="253"/>
       <c r="C2" s="99" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="241" t="s">
+      <c r="D2" s="244" t="s">
         <v>116</v>
       </c>
-      <c r="E2" s="241"/>
-      <c r="F2" s="241"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="245" t="s">
+      <c r="A3" s="254" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="246"/>
+      <c r="B3" s="255"/>
       <c r="C3" s="113">
         <v>4.8</v>
       </c>
@@ -28014,10 +28026,10 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="251" t="s">
+      <c r="A35" s="245" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="252"/>
+      <c r="B35" s="246"/>
       <c r="C35" s="118">
         <v>4.5</v>
       </c>
@@ -28033,42 +28045,42 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -28094,37 +28106,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="239" t="s">
+      <c r="A1" s="242" t="s">
         <v>1409</v>
       </c>
-      <c r="B1" s="239"/>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
-      <c r="E1" s="239"/>
-      <c r="F1" s="239"/>
+      <c r="B1" s="242"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="242"/>
+      <c r="F1" s="242"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="240" t="s">
+      <c r="A2" s="243" t="s">
         <v>281</v>
       </c>
-      <c r="B2" s="240"/>
-      <c r="C2" s="240"/>
-      <c r="D2" s="240"/>
-      <c r="E2" s="240"/>
-      <c r="F2" s="240"/>
-    </row>
-    <row r="3" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="243"/>
+      <c r="C2" s="243"/>
+      <c r="D2" s="243"/>
+      <c r="E2" s="243"/>
+      <c r="F2" s="243"/>
+    </row>
+    <row r="3" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="98" t="s">
         <v>114</v>
       </c>
       <c r="B3" s="120" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="241" t="s">
+      <c r="C3" s="244" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="241"/>
-      <c r="E3" s="241"/>
+      <c r="D3" s="244"/>
+      <c r="E3" s="244"/>
     </row>
     <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="100" t="s">
@@ -28688,14 +28700,14 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="206" t="s">
+      <c r="A37" s="211" t="s">
         <v>347</v>
       </c>
-      <c r="B37" s="206"/>
-      <c r="C37" s="206"/>
-      <c r="D37" s="206"/>
-      <c r="E37" s="206"/>
-      <c r="F37" s="206"/>
+      <c r="B37" s="211"/>
+      <c r="C37" s="211"/>
+      <c r="D37" s="211"/>
+      <c r="E37" s="211"/>
+      <c r="F37" s="211"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -28728,27 +28740,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="230" t="s">
+      <c r="A1" s="233" t="s">
         <v>1422</v>
       </c>
-      <c r="B1" s="230"/>
-      <c r="C1" s="230"/>
-      <c r="D1" s="230"/>
-      <c r="E1" s="230"/>
-      <c r="F1" s="230"/>
-    </row>
-    <row r="2" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="233"/>
+      <c r="C1" s="233"/>
+      <c r="D1" s="233"/>
+      <c r="E1" s="233"/>
+      <c r="F1" s="233"/>
+    </row>
+    <row r="2" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="98" t="s">
         <v>114</v>
       </c>
       <c r="B2" s="99" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="241" t="s">
+      <c r="C2" s="244" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="241"/>
-      <c r="E2" s="241"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
     </row>
     <row r="3" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="100" t="s">
@@ -29312,14 +29324,14 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="206" t="s">
+      <c r="A36" s="211" t="s">
         <v>347</v>
       </c>
-      <c r="B36" s="206"/>
-      <c r="C36" s="206"/>
-      <c r="D36" s="206"/>
-      <c r="E36" s="206"/>
-      <c r="F36" s="206"/>
+      <c r="B36" s="211"/>
+      <c r="C36" s="211"/>
+      <c r="D36" s="211"/>
+      <c r="E36" s="211"/>
+      <c r="F36" s="211"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -29351,37 +29363,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="239" t="s">
+      <c r="A1" s="242" t="s">
         <v>1411</v>
       </c>
-      <c r="B1" s="239"/>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
-      <c r="E1" s="239"/>
-      <c r="F1" s="239"/>
+      <c r="B1" s="242"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="242"/>
+      <c r="F1" s="242"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="240" t="s">
+      <c r="A2" s="243" t="s">
         <v>407</v>
       </c>
-      <c r="B2" s="240"/>
-      <c r="C2" s="240"/>
-      <c r="D2" s="240"/>
-      <c r="E2" s="240"/>
-      <c r="F2" s="240"/>
-    </row>
-    <row r="3" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="243"/>
+      <c r="C2" s="243"/>
+      <c r="D2" s="243"/>
+      <c r="E2" s="243"/>
+      <c r="F2" s="243"/>
+    </row>
+    <row r="3" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="98" t="s">
         <v>114</v>
       </c>
       <c r="B3" s="120" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="241" t="s">
+      <c r="C3" s="244" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="241"/>
-      <c r="E3" s="241"/>
+      <c r="D3" s="244"/>
+      <c r="E3" s="244"/>
     </row>
     <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="100" t="s">
@@ -29974,38 +29986,38 @@
     <col min="7" max="7" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="111" t="s">
         <v>474</v>
       </c>
-      <c r="B1" s="242" t="s">
+      <c r="B1" s="251" t="s">
         <v>1412</v>
       </c>
-      <c r="C1" s="242"/>
-      <c r="D1" s="242"/>
-      <c r="E1" s="242"/>
-      <c r="F1" s="242"/>
-      <c r="G1" s="242"/>
-    </row>
-    <row r="2" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="243" t="s">
+      <c r="C1" s="251"/>
+      <c r="D1" s="251"/>
+      <c r="E1" s="251"/>
+      <c r="F1" s="251"/>
+      <c r="G1" s="251"/>
+    </row>
+    <row r="2" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="252" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="244"/>
+      <c r="B2" s="253"/>
       <c r="C2" s="99" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="241" t="s">
+      <c r="D2" s="244" t="s">
         <v>116</v>
       </c>
-      <c r="E2" s="241"/>
-      <c r="F2" s="241"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="245" t="s">
+      <c r="A3" s="254" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="246"/>
+      <c r="B3" s="255"/>
       <c r="C3" s="113">
         <v>3.1</v>
       </c>
@@ -30578,10 +30590,10 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="251" t="s">
+      <c r="A35" s="245" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="252"/>
+      <c r="B35" s="246"/>
       <c r="C35" s="118">
         <v>2.5</v>
       </c>
@@ -30596,18 +30608,48 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="206" t="s">
+      <c r="A36" s="211" t="s">
         <v>347</v>
       </c>
-      <c r="B36" s="206"/>
-      <c r="C36" s="206"/>
-      <c r="D36" s="206"/>
-      <c r="E36" s="206"/>
-      <c r="F36" s="206"/>
-      <c r="G36" s="206"/>
+      <c r="B36" s="211"/>
+      <c r="C36" s="211"/>
+      <c r="D36" s="211"/>
+      <c r="E36" s="211"/>
+      <c r="F36" s="211"/>
+      <c r="G36" s="211"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A36:G36"/>
     <mergeCell ref="A30:B30"/>
@@ -30615,36 +30657,6 @@
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -30670,37 +30682,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="239" t="s">
+      <c r="A1" s="242" t="s">
         <v>1413</v>
       </c>
-      <c r="B1" s="239"/>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
-      <c r="E1" s="239"/>
-      <c r="F1" s="239"/>
+      <c r="B1" s="242"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="242"/>
+      <c r="F1" s="242"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="240" t="s">
+      <c r="A2" s="243" t="s">
         <v>521</v>
       </c>
-      <c r="B2" s="240"/>
-      <c r="C2" s="240"/>
-      <c r="D2" s="240"/>
-      <c r="E2" s="240"/>
-      <c r="F2" s="240"/>
-    </row>
-    <row r="3" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="243"/>
+      <c r="C2" s="243"/>
+      <c r="D2" s="243"/>
+      <c r="E2" s="243"/>
+      <c r="F2" s="243"/>
+    </row>
+    <row r="3" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="98" t="s">
         <v>114</v>
       </c>
       <c r="B3" s="120" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="241" t="s">
+      <c r="C3" s="244" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="241"/>
-      <c r="E3" s="241"/>
+      <c r="D3" s="244"/>
+      <c r="E3" s="244"/>
     </row>
     <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="100" t="s">
@@ -31293,27 +31305,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="217" t="s">
+      <c r="A1" s="219" t="s">
         <v>1423</v>
       </c>
-      <c r="B1" s="217"/>
-      <c r="C1" s="217"/>
-      <c r="D1" s="217"/>
-      <c r="E1" s="217"/>
-      <c r="F1" s="217"/>
-    </row>
-    <row r="2" spans="1:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="219"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="219"/>
+      <c r="F1" s="219"/>
+    </row>
+    <row r="2" spans="1:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="112" t="s">
         <v>114</v>
       </c>
       <c r="B2" s="99" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="241" t="s">
+      <c r="C2" s="244" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="241"/>
-      <c r="E2" s="241"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
     </row>
     <row r="3" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="100" t="s">
@@ -31877,14 +31889,14 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="206" t="s">
+      <c r="A36" s="211" t="s">
         <v>347</v>
       </c>
-      <c r="B36" s="206"/>
-      <c r="C36" s="206"/>
-      <c r="D36" s="206"/>
-      <c r="E36" s="206"/>
-      <c r="F36" s="206"/>
+      <c r="B36" s="211"/>
+      <c r="C36" s="211"/>
+      <c r="D36" s="211"/>
+      <c r="E36" s="211"/>
+      <c r="F36" s="211"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -31916,27 +31928,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="217" t="s">
+      <c r="A1" s="219" t="s">
         <v>1424</v>
       </c>
-      <c r="B1" s="217"/>
-      <c r="C1" s="217"/>
-      <c r="D1" s="217"/>
-      <c r="E1" s="217"/>
-      <c r="F1" s="217"/>
-    </row>
-    <row r="2" spans="1:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="219"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="219"/>
+      <c r="F1" s="219"/>
+    </row>
+    <row r="2" spans="1:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="112" t="s">
         <v>114</v>
       </c>
       <c r="B2" s="99" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="241" t="s">
+      <c r="C2" s="244" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="241"/>
-      <c r="E2" s="241"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
     </row>
     <row r="3" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="100" t="s">
@@ -32500,14 +32512,14 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="206" t="s">
+      <c r="A36" s="211" t="s">
         <v>347</v>
       </c>
-      <c r="B36" s="206"/>
-      <c r="C36" s="206"/>
-      <c r="D36" s="206"/>
-      <c r="E36" s="206"/>
-      <c r="F36" s="206"/>
+      <c r="B36" s="211"/>
+      <c r="C36" s="211"/>
+      <c r="D36" s="211"/>
+      <c r="E36" s="211"/>
+      <c r="F36" s="211"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -32539,36 +32551,36 @@
     <col min="7" max="7" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="111" t="s">
         <v>694</v>
       </c>
-      <c r="B1" s="253" t="s">
+      <c r="B1" s="258" t="s">
         <v>695</v>
       </c>
-      <c r="C1" s="253"/>
-      <c r="D1" s="253"/>
-      <c r="E1" s="253"/>
-      <c r="F1" s="253"/>
-      <c r="G1" s="253"/>
-    </row>
-    <row r="2" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="243" t="s">
+      <c r="C1" s="258"/>
+      <c r="D1" s="258"/>
+      <c r="E1" s="258"/>
+      <c r="F1" s="258"/>
+      <c r="G1" s="258"/>
+    </row>
+    <row r="2" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="252" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="244"/>
-      <c r="C2" s="254" t="s">
+      <c r="B2" s="253"/>
+      <c r="C2" s="259" t="s">
         <v>696</v>
       </c>
-      <c r="D2" s="225"/>
-      <c r="E2" s="225"/>
-      <c r="F2" s="225"/>
+      <c r="D2" s="228"/>
+      <c r="E2" s="228"/>
+      <c r="F2" s="228"/>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="245" t="s">
+      <c r="A3" s="254" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="246"/>
+      <c r="B3" s="255"/>
       <c r="C3" s="113">
         <v>39</v>
       </c>
@@ -32601,10 +32613,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="255" t="s">
+      <c r="A5" s="256" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="256"/>
+      <c r="B5" s="257"/>
       <c r="C5" s="115">
         <v>38.6</v>
       </c>
@@ -32673,10 +32685,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="255" t="s">
+      <c r="A9" s="256" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="256"/>
+      <c r="B9" s="257"/>
       <c r="C9" s="115">
         <v>37</v>
       </c>
@@ -33141,10 +33153,10 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="251" t="s">
+      <c r="A35" s="245" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="252"/>
+      <c r="B35" s="246"/>
       <c r="C35" s="118">
         <v>33.6</v>
       </c>
@@ -33160,42 +33172,42 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -33221,35 +33233,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="257" t="s">
+      <c r="A1" s="260" t="s">
         <v>763</v>
       </c>
-      <c r="B1" s="257"/>
-      <c r="C1" s="257"/>
-      <c r="D1" s="257"/>
-      <c r="E1" s="257"/>
-      <c r="F1" s="257"/>
+      <c r="B1" s="260"/>
+      <c r="C1" s="260"/>
+      <c r="D1" s="260"/>
+      <c r="E1" s="260"/>
+      <c r="F1" s="260"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="240" t="s">
+      <c r="A2" s="243" t="s">
         <v>764</v>
       </c>
-      <c r="B2" s="240"/>
-      <c r="C2" s="240"/>
-      <c r="D2" s="240"/>
-      <c r="E2" s="240"/>
-      <c r="F2" s="240"/>
-    </row>
-    <row r="3" spans="1:6" ht="73.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="243"/>
+      <c r="C2" s="243"/>
+      <c r="D2" s="243"/>
+      <c r="E2" s="243"/>
+      <c r="F2" s="243"/>
+    </row>
+    <row r="3" spans="1:6" ht="73.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="98" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="254" t="s">
+      <c r="B3" s="259" t="s">
         <v>696</v>
       </c>
-      <c r="C3" s="225"/>
-      <c r="D3" s="225"/>
-      <c r="E3" s="225"/>
+      <c r="C3" s="228"/>
+      <c r="D3" s="228"/>
+      <c r="E3" s="228"/>
     </row>
     <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="100" t="s">
@@ -37179,14 +37191,14 @@
       </c>
     </row>
     <row r="235" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="206" t="s">
+      <c r="A235" s="211" t="s">
         <v>347</v>
       </c>
-      <c r="B235" s="206"/>
-      <c r="C235" s="206"/>
-      <c r="D235" s="206"/>
-      <c r="E235" s="206"/>
-      <c r="F235" s="206"/>
+      <c r="B235" s="211"/>
+      <c r="C235" s="211"/>
+      <c r="D235" s="211"/>
+      <c r="E235" s="211"/>
+      <c r="F235" s="211"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -37221,15 +37233,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="270" t="s">
+      <c r="A1" s="212" t="s">
         <v>1437</v>
       </c>
-      <c r="B1" s="212"/>
-      <c r="C1" s="212"/>
-      <c r="D1" s="212"/>
-      <c r="E1" s="212"/>
-      <c r="F1" s="212"/>
-      <c r="G1" s="213"/>
+      <c r="B1" s="213"/>
+      <c r="C1" s="213"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="213"/>
+      <c r="F1" s="213"/>
+      <c r="G1" s="214"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -37326,16 +37338,16 @@
     <col min="6" max="6" width="2.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="73.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="73.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="98" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="254" t="s">
+      <c r="B1" s="259" t="s">
         <v>696</v>
       </c>
-      <c r="C1" s="225"/>
-      <c r="D1" s="225"/>
-      <c r="E1" s="225"/>
+      <c r="C1" s="228"/>
+      <c r="D1" s="228"/>
+      <c r="E1" s="228"/>
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="100" t="s">
@@ -37899,34 +37911,34 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="258" t="s">
+      <c r="A35" s="261" t="s">
         <v>1291</v>
       </c>
-      <c r="B35" s="258"/>
-      <c r="C35" s="258"/>
-      <c r="D35" s="258"/>
-      <c r="E35" s="258"/>
-      <c r="F35" s="258"/>
+      <c r="B35" s="261"/>
+      <c r="C35" s="261"/>
+      <c r="D35" s="261"/>
+      <c r="E35" s="261"/>
+      <c r="F35" s="261"/>
     </row>
     <row r="36" spans="1:6" ht="102.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="222" t="s">
+      <c r="A36" s="220" t="s">
         <v>1292</v>
       </c>
-      <c r="B36" s="222"/>
-      <c r="C36" s="222"/>
-      <c r="D36" s="222"/>
-      <c r="E36" s="222"/>
-      <c r="F36" s="222"/>
+      <c r="B36" s="220"/>
+      <c r="C36" s="220"/>
+      <c r="D36" s="220"/>
+      <c r="E36" s="220"/>
+      <c r="F36" s="220"/>
     </row>
     <row r="37" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="222" t="s">
+      <c r="A37" s="220" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="222"/>
-      <c r="C37" s="222"/>
-      <c r="D37" s="222"/>
-      <c r="E37" s="222"/>
-      <c r="F37" s="222"/>
+      <c r="B37" s="220"/>
+      <c r="C37" s="220"/>
+      <c r="D37" s="220"/>
+      <c r="E37" s="220"/>
+      <c r="F37" s="220"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -37944,7 +37956,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A6" sqref="A6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -37960,16 +37972,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="222" t="s">
+      <c r="A1" s="220" t="s">
         <v>1293</v>
       </c>
-      <c r="B1" s="222"/>
-      <c r="C1" s="222"/>
-      <c r="D1" s="222"/>
-      <c r="E1" s="222"/>
-      <c r="F1" s="222"/>
-      <c r="G1" s="222"/>
-      <c r="H1" s="222"/>
+      <c r="B1" s="220"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="220"/>
+      <c r="H1" s="220"/>
     </row>
     <row r="2" spans="1:8" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
@@ -37981,10 +37993,10 @@
       <c r="C2" s="133" t="s">
         <v>1296</v>
       </c>
-      <c r="D2" s="241" t="s">
+      <c r="D2" s="244" t="s">
         <v>1297</v>
       </c>
-      <c r="E2" s="241"/>
+      <c r="E2" s="244"/>
       <c r="F2" s="133" t="s">
         <v>1298</v>
       </c>
@@ -37992,7 +38004,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -38061,23 +38073,11 @@
         <v>4.5830000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="206" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="206"/>
-      <c r="C6" s="206"/>
-      <c r="D6" s="206"/>
-      <c r="E6" s="206"/>
-      <c r="F6" s="206"/>
-      <c r="G6" s="206"/>
-      <c r="H6" s="206"/>
-    </row>
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A6:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -38104,16 +38104,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="222" t="s">
+      <c r="A1" s="220" t="s">
         <v>1299</v>
       </c>
-      <c r="B1" s="222"/>
-      <c r="C1" s="222"/>
-      <c r="D1" s="222"/>
-      <c r="E1" s="222"/>
-      <c r="F1" s="222"/>
-      <c r="G1" s="222"/>
-      <c r="H1" s="222"/>
+      <c r="B1" s="220"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="220"/>
+      <c r="H1" s="220"/>
     </row>
     <row r="2" spans="1:8" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
@@ -38125,10 +38125,10 @@
       <c r="C2" s="133" t="s">
         <v>1296</v>
       </c>
-      <c r="D2" s="241" t="s">
+      <c r="D2" s="244" t="s">
         <v>1297</v>
       </c>
-      <c r="E2" s="241"/>
+      <c r="E2" s="244"/>
       <c r="F2" s="133" t="s">
         <v>1298</v>
       </c>
@@ -38206,16 +38206,16 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="206" t="s">
+      <c r="A6" s="211" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="206"/>
-      <c r="C6" s="206"/>
-      <c r="D6" s="206"/>
-      <c r="E6" s="206"/>
-      <c r="F6" s="206"/>
-      <c r="G6" s="206"/>
-      <c r="H6" s="206"/>
+      <c r="B6" s="211"/>
+      <c r="C6" s="211"/>
+      <c r="D6" s="211"/>
+      <c r="E6" s="211"/>
+      <c r="F6" s="211"/>
+      <c r="G6" s="211"/>
+      <c r="H6" s="211"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -38231,8 +38231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -38245,22 +38245,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="215" t="s">
         <v>1301</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="240" t="s">
+      <c r="A2" s="243" t="s">
         <v>1302</v>
       </c>
-      <c r="B2" s="240"/>
-      <c r="C2" s="240"/>
-      <c r="D2" s="240"/>
-      <c r="E2" s="240"/>
+      <c r="B2" s="243"/>
+      <c r="C2" s="243"/>
+      <c r="D2" s="243"/>
+      <c r="E2" s="243"/>
     </row>
     <row r="3" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="147" t="s">
@@ -38361,8 +38361,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="104" t="s">
-        <v>51</v>
+      <c r="A10" s="271" t="s">
+        <v>1438</v>
       </c>
       <c r="B10" s="153">
         <v>6.867</v>
@@ -38403,8 +38403,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="104" t="s">
-        <v>143</v>
+      <c r="A13" s="271" t="s">
+        <v>1440</v>
       </c>
       <c r="B13" s="153">
         <v>9.0619999999999994</v>
@@ -38417,8 +38417,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="104" t="s">
-        <v>146</v>
+      <c r="A14" s="271" t="s">
+        <v>1439</v>
       </c>
       <c r="B14" s="153">
         <v>4.4749999999999996</v>
@@ -38739,13 +38739,13 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="206" t="s">
+      <c r="A37" s="211" t="s">
         <v>1305</v>
       </c>
-      <c r="B37" s="206"/>
-      <c r="C37" s="206"/>
-      <c r="D37" s="206"/>
-      <c r="E37" s="206"/>
+      <c r="B37" s="211"/>
+      <c r="C37" s="211"/>
+      <c r="D37" s="211"/>
+      <c r="E37" s="211"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -38754,7 +38754,8 @@
     <mergeCell ref="A37:E37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -38777,24 +38778,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="215" t="s">
         <v>1306</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="240" t="s">
+      <c r="A2" s="243" t="s">
         <v>1307</v>
       </c>
-      <c r="B2" s="240"/>
-      <c r="C2" s="240"/>
-      <c r="D2" s="240"/>
-      <c r="E2" s="240"/>
-      <c r="F2" s="240"/>
+      <c r="B2" s="243"/>
+      <c r="C2" s="243"/>
+      <c r="D2" s="243"/>
+      <c r="E2" s="243"/>
+      <c r="F2" s="243"/>
     </row>
     <row r="3" spans="1:6" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="158" t="s">
@@ -39273,41 +39274,41 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="206" t="s">
+      <c r="A37" s="211" t="s">
         <v>1308</v>
       </c>
-      <c r="B37" s="206"/>
-      <c r="C37" s="206"/>
-      <c r="D37" s="206"/>
-      <c r="E37" s="206"/>
-      <c r="F37" s="206"/>
+      <c r="B37" s="211"/>
+      <c r="C37" s="211"/>
+      <c r="D37" s="211"/>
+      <c r="E37" s="211"/>
+      <c r="F37" s="211"/>
     </row>
     <row r="38" spans="1:6" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="258" t="s">
+      <c r="A38" s="261" t="s">
         <v>1309</v>
       </c>
-      <c r="B38" s="258"/>
-      <c r="C38" s="258"/>
-      <c r="D38" s="258"/>
-      <c r="E38" s="258"/>
+      <c r="B38" s="261"/>
+      <c r="C38" s="261"/>
+      <c r="D38" s="261"/>
+      <c r="E38" s="261"/>
     </row>
     <row r="39" spans="1:6" ht="297.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="222" t="s">
+      <c r="A39" s="220" t="s">
         <v>1310</v>
       </c>
-      <c r="B39" s="222"/>
-      <c r="C39" s="222"/>
-      <c r="D39" s="222"/>
-      <c r="E39" s="222"/>
+      <c r="B39" s="220"/>
+      <c r="C39" s="220"/>
+      <c r="D39" s="220"/>
+      <c r="E39" s="220"/>
     </row>
     <row r="40" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="222" t="s">
+      <c r="A40" s="220" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="222"/>
-      <c r="C40" s="222"/>
-      <c r="D40" s="222"/>
-      <c r="E40" s="222"/>
+      <c r="B40" s="220"/>
+      <c r="C40" s="220"/>
+      <c r="D40" s="220"/>
+      <c r="E40" s="220"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -39340,21 +39341,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="222" t="s">
+      <c r="A1" s="220" t="s">
         <v>1425</v>
       </c>
-      <c r="B1" s="222"/>
-      <c r="C1" s="222"/>
-      <c r="D1" s="222"/>
+      <c r="B1" s="220"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
     </row>
     <row r="2" spans="1:4" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="159" t="s">
         <v>1311</v>
       </c>
-      <c r="B2" s="238" t="s">
+      <c r="B2" s="235" t="s">
         <v>1312</v>
       </c>
-      <c r="C2" s="259"/>
+      <c r="C2" s="262"/>
     </row>
     <row r="3" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -39470,12 +39471,12 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="206" t="s">
+      <c r="A14" s="211" t="s">
         <v>1317</v>
       </c>
-      <c r="B14" s="206"/>
-      <c r="C14" s="206"/>
-      <c r="D14" s="206"/>
+      <c r="B14" s="211"/>
+      <c r="C14" s="211"/>
+      <c r="D14" s="211"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -39508,39 +39509,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="215" t="s">
         <v>1426</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
+      <c r="H1" s="215"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="202" t="s">
+      <c r="A2" s="204" t="s">
         <v>1318</v>
       </c>
-      <c r="B2" s="202"/>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="202"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
+      <c r="B2" s="204"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
+      <c r="G2" s="204"/>
+      <c r="H2" s="204"/>
     </row>
     <row r="3" spans="1:8" ht="83.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="211" t="s">
+      <c r="A3" s="225" t="s">
         <v>1319</v>
       </c>
-      <c r="B3" s="212"/>
-      <c r="C3" s="212"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="212"/>
-      <c r="F3" s="212"/>
-      <c r="G3" s="213"/>
+      <c r="B3" s="213"/>
+      <c r="C3" s="213"/>
+      <c r="D3" s="213"/>
+      <c r="E3" s="213"/>
+      <c r="F3" s="213"/>
+      <c r="G3" s="214"/>
     </row>
     <row r="4" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -39658,16 +39659,16 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="206" t="s">
+      <c r="A9" s="211" t="s">
         <v>1325</v>
       </c>
-      <c r="B9" s="206"/>
-      <c r="C9" s="206"/>
-      <c r="D9" s="206"/>
-      <c r="E9" s="206"/>
-      <c r="F9" s="206"/>
-      <c r="G9" s="206"/>
-      <c r="H9" s="206"/>
+      <c r="B9" s="211"/>
+      <c r="C9" s="211"/>
+      <c r="D9" s="211"/>
+      <c r="E9" s="211"/>
+      <c r="F9" s="211"/>
+      <c r="G9" s="211"/>
+      <c r="H9" s="211"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -39701,39 +39702,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="215" t="s">
         <v>1427</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
+      <c r="H1" s="215"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="202" t="s">
+      <c r="A2" s="204" t="s">
         <v>1326</v>
       </c>
-      <c r="B2" s="202"/>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="202"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
+      <c r="B2" s="204"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
+      <c r="G2" s="204"/>
+      <c r="H2" s="204"/>
     </row>
     <row r="3" spans="1:8" ht="83.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="260" t="s">
+      <c r="A3" s="263" t="s">
         <v>1327</v>
       </c>
-      <c r="B3" s="241"/>
-      <c r="C3" s="241"/>
-      <c r="D3" s="241"/>
-      <c r="E3" s="241"/>
-      <c r="F3" s="241"/>
-      <c r="G3" s="261"/>
+      <c r="B3" s="244"/>
+      <c r="C3" s="244"/>
+      <c r="D3" s="244"/>
+      <c r="E3" s="244"/>
+      <c r="F3" s="244"/>
+      <c r="G3" s="264"/>
     </row>
     <row r="4" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -39851,16 +39852,16 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="206" t="s">
+      <c r="A9" s="211" t="s">
         <v>1328</v>
       </c>
-      <c r="B9" s="206"/>
-      <c r="C9" s="206"/>
-      <c r="D9" s="206"/>
-      <c r="E9" s="206"/>
-      <c r="F9" s="206"/>
-      <c r="G9" s="206"/>
-      <c r="H9" s="206"/>
+      <c r="B9" s="211"/>
+      <c r="C9" s="211"/>
+      <c r="D9" s="211"/>
+      <c r="E9" s="211"/>
+      <c r="F9" s="211"/>
+      <c r="G9" s="211"/>
+      <c r="H9" s="211"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -39894,39 +39895,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="215" t="s">
         <v>1428</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
+      <c r="H1" s="215"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="202" t="s">
+      <c r="A2" s="204" t="s">
         <v>1329</v>
       </c>
-      <c r="B2" s="202"/>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="202"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
+      <c r="B2" s="204"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
+      <c r="G2" s="204"/>
+      <c r="H2" s="204"/>
     </row>
     <row r="3" spans="1:8" ht="83.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="260" t="s">
+      <c r="A3" s="263" t="s">
         <v>1330</v>
       </c>
-      <c r="B3" s="241"/>
-      <c r="C3" s="241"/>
-      <c r="D3" s="241"/>
-      <c r="E3" s="241"/>
-      <c r="F3" s="241"/>
-      <c r="G3" s="261"/>
+      <c r="B3" s="244"/>
+      <c r="C3" s="244"/>
+      <c r="D3" s="244"/>
+      <c r="E3" s="244"/>
+      <c r="F3" s="244"/>
+      <c r="G3" s="264"/>
     </row>
     <row r="4" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -40044,16 +40045,16 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="206" t="s">
+      <c r="A9" s="211" t="s">
         <v>1331</v>
       </c>
-      <c r="B9" s="206"/>
-      <c r="C9" s="206"/>
-      <c r="D9" s="206"/>
-      <c r="E9" s="206"/>
-      <c r="F9" s="206"/>
-      <c r="G9" s="206"/>
-      <c r="H9" s="206"/>
+      <c r="B9" s="211"/>
+      <c r="C9" s="211"/>
+      <c r="D9" s="211"/>
+      <c r="E9" s="211"/>
+      <c r="F9" s="211"/>
+      <c r="G9" s="211"/>
+      <c r="H9" s="211"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -40087,39 +40088,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="215" t="s">
         <v>1429</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
+      <c r="H1" s="215"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="202" t="s">
+      <c r="A2" s="204" t="s">
         <v>1332</v>
       </c>
-      <c r="B2" s="202"/>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="202"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
+      <c r="B2" s="204"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
+      <c r="G2" s="204"/>
+      <c r="H2" s="204"/>
     </row>
     <row r="3" spans="1:8" ht="83.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="260" t="s">
+      <c r="A3" s="263" t="s">
         <v>1333</v>
       </c>
-      <c r="B3" s="241"/>
-      <c r="C3" s="241"/>
-      <c r="D3" s="241"/>
-      <c r="E3" s="241"/>
-      <c r="F3" s="241"/>
-      <c r="G3" s="261"/>
+      <c r="B3" s="244"/>
+      <c r="C3" s="244"/>
+      <c r="D3" s="244"/>
+      <c r="E3" s="244"/>
+      <c r="F3" s="244"/>
+      <c r="G3" s="264"/>
     </row>
     <row r="4" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -40237,16 +40238,16 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="206" t="s">
+      <c r="A9" s="211" t="s">
         <v>1334</v>
       </c>
-      <c r="B9" s="206"/>
-      <c r="C9" s="206"/>
-      <c r="D9" s="206"/>
-      <c r="E9" s="206"/>
-      <c r="F9" s="206"/>
-      <c r="G9" s="206"/>
-      <c r="H9" s="206"/>
+      <c r="B9" s="211"/>
+      <c r="C9" s="211"/>
+      <c r="D9" s="211"/>
+      <c r="E9" s="211"/>
+      <c r="F9" s="211"/>
+      <c r="G9" s="211"/>
+      <c r="H9" s="211"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -40285,54 +40286,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="215" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
-      <c r="J1" s="210"/>
-      <c r="K1" s="210"/>
-      <c r="L1" s="210"/>
-      <c r="M1" s="210"/>
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
+      <c r="H1" s="215"/>
+      <c r="I1" s="215"/>
+      <c r="J1" s="215"/>
+      <c r="K1" s="215"/>
+      <c r="L1" s="215"/>
+      <c r="M1" s="215"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="202" t="s">
+      <c r="A2" s="204" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="202"/>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="202"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
-      <c r="I2" s="202"/>
-      <c r="J2" s="202"/>
-      <c r="K2" s="202"/>
-      <c r="L2" s="202"/>
-      <c r="M2" s="202"/>
+      <c r="B2" s="204"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
+      <c r="G2" s="204"/>
+      <c r="H2" s="204"/>
+      <c r="I2" s="204"/>
+      <c r="J2" s="204"/>
+      <c r="K2" s="204"/>
+      <c r="L2" s="204"/>
+      <c r="M2" s="204"/>
     </row>
     <row r="3" spans="1:13" ht="71.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="214" t="s">
+      <c r="A3" s="216" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="215"/>
-      <c r="C3" s="215"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="215"/>
-      <c r="F3" s="215"/>
-      <c r="G3" s="215"/>
-      <c r="H3" s="215"/>
-      <c r="I3" s="215"/>
-      <c r="J3" s="215"/>
-      <c r="K3" s="215"/>
-      <c r="L3" s="216"/>
+      <c r="B3" s="217"/>
+      <c r="C3" s="217"/>
+      <c r="D3" s="217"/>
+      <c r="E3" s="217"/>
+      <c r="F3" s="217"/>
+      <c r="G3" s="217"/>
+      <c r="H3" s="217"/>
+      <c r="I3" s="217"/>
+      <c r="J3" s="217"/>
+      <c r="K3" s="217"/>
+      <c r="L3" s="218"/>
     </row>
     <row r="4" spans="1:13" ht="35.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -40535,21 +40536,21 @@
       <c r="L10" s="59"/>
     </row>
     <row r="11" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="206" t="s">
+      <c r="A11" s="211" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="206"/>
-      <c r="C11" s="206"/>
-      <c r="D11" s="206"/>
-      <c r="E11" s="206"/>
-      <c r="F11" s="206"/>
-      <c r="G11" s="206"/>
-      <c r="H11" s="206"/>
-      <c r="I11" s="206"/>
-      <c r="J11" s="206"/>
-      <c r="K11" s="206"/>
-      <c r="L11" s="206"/>
-      <c r="M11" s="206"/>
+      <c r="B11" s="211"/>
+      <c r="C11" s="211"/>
+      <c r="D11" s="211"/>
+      <c r="E11" s="211"/>
+      <c r="F11" s="211"/>
+      <c r="G11" s="211"/>
+      <c r="H11" s="211"/>
+      <c r="I11" s="211"/>
+      <c r="J11" s="211"/>
+      <c r="K11" s="211"/>
+      <c r="L11" s="211"/>
+      <c r="M11" s="211"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -40583,39 +40584,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="215" t="s">
         <v>1426</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
+      <c r="H1" s="215"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="202" t="s">
+      <c r="A2" s="204" t="s">
         <v>1335</v>
       </c>
-      <c r="B2" s="202"/>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="202"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
+      <c r="B2" s="204"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
+      <c r="G2" s="204"/>
+      <c r="H2" s="204"/>
     </row>
     <row r="3" spans="1:8" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="211" t="s">
+      <c r="A3" s="225" t="s">
         <v>1336</v>
       </c>
-      <c r="B3" s="212"/>
-      <c r="C3" s="212"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="212"/>
-      <c r="F3" s="212"/>
-      <c r="G3" s="213"/>
+      <c r="B3" s="213"/>
+      <c r="C3" s="213"/>
+      <c r="D3" s="213"/>
+      <c r="E3" s="213"/>
+      <c r="F3" s="213"/>
+      <c r="G3" s="214"/>
     </row>
     <row r="4" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -40710,16 +40711,16 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="206" t="s">
+      <c r="A8" s="211" t="s">
         <v>1325</v>
       </c>
-      <c r="B8" s="206"/>
-      <c r="C8" s="206"/>
-      <c r="D8" s="206"/>
-      <c r="E8" s="206"/>
-      <c r="F8" s="206"/>
-      <c r="G8" s="206"/>
-      <c r="H8" s="206"/>
+      <c r="B8" s="211"/>
+      <c r="C8" s="211"/>
+      <c r="D8" s="211"/>
+      <c r="E8" s="211"/>
+      <c r="F8" s="211"/>
+      <c r="G8" s="211"/>
+      <c r="H8" s="211"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -40753,39 +40754,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="215" t="s">
         <v>1427</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
+      <c r="H1" s="215"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="202" t="s">
+      <c r="A2" s="204" t="s">
         <v>1341</v>
       </c>
-      <c r="B2" s="202"/>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="202"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
+      <c r="B2" s="204"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
+      <c r="G2" s="204"/>
+      <c r="H2" s="204"/>
     </row>
     <row r="3" spans="1:8" ht="83.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="260" t="s">
+      <c r="A3" s="263" t="s">
         <v>1342</v>
       </c>
-      <c r="B3" s="241"/>
-      <c r="C3" s="241"/>
-      <c r="D3" s="241"/>
-      <c r="E3" s="241"/>
-      <c r="F3" s="241"/>
-      <c r="G3" s="261"/>
+      <c r="B3" s="244"/>
+      <c r="C3" s="244"/>
+      <c r="D3" s="244"/>
+      <c r="E3" s="244"/>
+      <c r="F3" s="244"/>
+      <c r="G3" s="264"/>
     </row>
     <row r="4" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -40880,16 +40881,16 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="206" t="s">
+      <c r="A8" s="211" t="s">
         <v>1328</v>
       </c>
-      <c r="B8" s="206"/>
-      <c r="C8" s="206"/>
-      <c r="D8" s="206"/>
-      <c r="E8" s="206"/>
-      <c r="F8" s="206"/>
-      <c r="G8" s="206"/>
-      <c r="H8" s="206"/>
+      <c r="B8" s="211"/>
+      <c r="C8" s="211"/>
+      <c r="D8" s="211"/>
+      <c r="E8" s="211"/>
+      <c r="F8" s="211"/>
+      <c r="G8" s="211"/>
+      <c r="H8" s="211"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -40923,39 +40924,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="215" t="s">
         <v>1428</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
+      <c r="H1" s="215"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="202" t="s">
+      <c r="A2" s="204" t="s">
         <v>1343</v>
       </c>
-      <c r="B2" s="202"/>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="202"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
+      <c r="B2" s="204"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
+      <c r="G2" s="204"/>
+      <c r="H2" s="204"/>
     </row>
     <row r="3" spans="1:8" ht="83.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="260" t="s">
+      <c r="A3" s="263" t="s">
         <v>1344</v>
       </c>
-      <c r="B3" s="241"/>
-      <c r="C3" s="241"/>
-      <c r="D3" s="241"/>
-      <c r="E3" s="241"/>
-      <c r="F3" s="241"/>
-      <c r="G3" s="261"/>
+      <c r="B3" s="244"/>
+      <c r="C3" s="244"/>
+      <c r="D3" s="244"/>
+      <c r="E3" s="244"/>
+      <c r="F3" s="244"/>
+      <c r="G3" s="264"/>
     </row>
     <row r="4" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -41050,16 +41051,16 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="206" t="s">
+      <c r="A8" s="211" t="s">
         <v>1331</v>
       </c>
-      <c r="B8" s="206"/>
-      <c r="C8" s="206"/>
-      <c r="D8" s="206"/>
-      <c r="E8" s="206"/>
-      <c r="F8" s="206"/>
-      <c r="G8" s="206"/>
-      <c r="H8" s="206"/>
+      <c r="B8" s="211"/>
+      <c r="C8" s="211"/>
+      <c r="D8" s="211"/>
+      <c r="E8" s="211"/>
+      <c r="F8" s="211"/>
+      <c r="G8" s="211"/>
+      <c r="H8" s="211"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -41093,39 +41094,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="215" t="s">
         <v>1429</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
+      <c r="H1" s="215"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="202" t="s">
+      <c r="A2" s="204" t="s">
         <v>1345</v>
       </c>
-      <c r="B2" s="202"/>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="202"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
+      <c r="B2" s="204"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
+      <c r="G2" s="204"/>
+      <c r="H2" s="204"/>
     </row>
     <row r="3" spans="1:8" ht="83.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="260" t="s">
+      <c r="A3" s="263" t="s">
         <v>1346</v>
       </c>
-      <c r="B3" s="241"/>
-      <c r="C3" s="241"/>
-      <c r="D3" s="241"/>
-      <c r="E3" s="241"/>
-      <c r="F3" s="241"/>
-      <c r="G3" s="261"/>
+      <c r="B3" s="244"/>
+      <c r="C3" s="244"/>
+      <c r="D3" s="244"/>
+      <c r="E3" s="244"/>
+      <c r="F3" s="244"/>
+      <c r="G3" s="264"/>
     </row>
     <row r="4" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -41220,16 +41221,16 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="206" t="s">
+      <c r="A8" s="211" t="s">
         <v>1334</v>
       </c>
-      <c r="B8" s="206"/>
-      <c r="C8" s="206"/>
-      <c r="D8" s="206"/>
-      <c r="E8" s="206"/>
-      <c r="F8" s="206"/>
-      <c r="G8" s="206"/>
-      <c r="H8" s="206"/>
+      <c r="B8" s="211"/>
+      <c r="C8" s="211"/>
+      <c r="D8" s="211"/>
+      <c r="E8" s="211"/>
+      <c r="F8" s="211"/>
+      <c r="G8" s="211"/>
+      <c r="H8" s="211"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -41263,38 +41264,38 @@
     <col min="9" max="9" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="111" t="s">
         <v>1347</v>
       </c>
-      <c r="B1" s="262" t="s">
+      <c r="B1" s="268" t="s">
         <v>1430</v>
       </c>
-      <c r="C1" s="262"/>
-      <c r="D1" s="262"/>
-      <c r="E1" s="262"/>
-      <c r="F1" s="262"/>
-      <c r="G1" s="262"/>
-      <c r="H1" s="262"/>
-      <c r="I1" s="262"/>
+      <c r="C1" s="268"/>
+      <c r="D1" s="268"/>
+      <c r="E1" s="268"/>
+      <c r="F1" s="268"/>
+      <c r="G1" s="268"/>
+      <c r="H1" s="268"/>
+      <c r="I1" s="268"/>
     </row>
     <row r="2" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="211" t="s">
+      <c r="A2" s="225" t="s">
         <v>1348</v>
       </c>
-      <c r="B2" s="212"/>
-      <c r="C2" s="212"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="212"/>
-      <c r="F2" s="212"/>
-      <c r="G2" s="212"/>
-      <c r="H2" s="213"/>
+      <c r="B2" s="213"/>
+      <c r="C2" s="213"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="213"/>
+      <c r="G2" s="213"/>
+      <c r="H2" s="214"/>
     </row>
     <row r="3" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="263" t="s">
+      <c r="A3" s="269" t="s">
         <v>1349</v>
       </c>
-      <c r="B3" s="264"/>
+      <c r="B3" s="270"/>
       <c r="C3" s="180">
         <v>223681</v>
       </c>
@@ -41534,7 +41535,7 @@
       <c r="A13" s="267" t="s">
         <v>1359</v>
       </c>
-      <c r="B13" s="251"/>
+      <c r="B13" s="245"/>
       <c r="C13" s="185">
         <v>42338</v>
       </c>
@@ -41555,20 +41556,25 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="206" t="s">
+      <c r="A14" s="211" t="s">
         <v>1360</v>
       </c>
-      <c r="B14" s="206"/>
-      <c r="C14" s="206"/>
-      <c r="D14" s="206"/>
-      <c r="E14" s="206"/>
-      <c r="F14" s="206"/>
-      <c r="G14" s="206"/>
-      <c r="H14" s="206"/>
-      <c r="I14" s="206"/>
+      <c r="B14" s="211"/>
+      <c r="C14" s="211"/>
+      <c r="D14" s="211"/>
+      <c r="E14" s="211"/>
+      <c r="F14" s="211"/>
+      <c r="G14" s="211"/>
+      <c r="H14" s="211"/>
+      <c r="I14" s="211"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
@@ -41578,11 +41584,6 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -41609,27 +41610,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="222" t="s">
+      <c r="A1" s="220" t="s">
         <v>1431</v>
       </c>
-      <c r="B1" s="222"/>
-      <c r="C1" s="222"/>
-      <c r="D1" s="222"/>
-      <c r="E1" s="222"/>
-      <c r="F1" s="222"/>
-      <c r="G1" s="222"/>
-      <c r="H1" s="222"/>
+      <c r="B1" s="220"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="220"/>
+      <c r="H1" s="220"/>
     </row>
     <row r="2" spans="1:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="211" t="s">
+      <c r="A2" s="225" t="s">
         <v>1361</v>
       </c>
-      <c r="B2" s="212"/>
-      <c r="C2" s="212"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="212"/>
-      <c r="F2" s="212"/>
-      <c r="G2" s="213"/>
+      <c r="B2" s="213"/>
+      <c r="C2" s="213"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="213"/>
+      <c r="G2" s="214"/>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="187" t="s">
@@ -42080,28 +42081,28 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="206" t="s">
+      <c r="A23" s="211" t="s">
         <v>1381</v>
       </c>
-      <c r="B23" s="206"/>
-      <c r="C23" s="206"/>
-      <c r="D23" s="206"/>
-      <c r="E23" s="206"/>
-      <c r="F23" s="206"/>
-      <c r="G23" s="206"/>
-      <c r="H23" s="206"/>
+      <c r="B23" s="211"/>
+      <c r="C23" s="211"/>
+      <c r="D23" s="211"/>
+      <c r="E23" s="211"/>
+      <c r="F23" s="211"/>
+      <c r="G23" s="211"/>
+      <c r="H23" s="211"/>
     </row>
     <row r="24" spans="1:8" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="222" t="s">
+      <c r="A24" s="220" t="s">
         <v>1433</v>
       </c>
-      <c r="B24" s="222"/>
-      <c r="C24" s="222"/>
-      <c r="D24" s="222"/>
-      <c r="E24" s="222"/>
-      <c r="F24" s="222"/>
-      <c r="G24" s="222"/>
-      <c r="H24" s="222"/>
+      <c r="B24" s="220"/>
+      <c r="C24" s="220"/>
+      <c r="D24" s="220"/>
+      <c r="E24" s="220"/>
+      <c r="F24" s="220"/>
+      <c r="G24" s="220"/>
+      <c r="H24" s="220"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -42135,15 +42136,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="225" t="s">
         <v>1382</v>
       </c>
-      <c r="B1" s="212"/>
-      <c r="C1" s="212"/>
-      <c r="D1" s="212"/>
-      <c r="E1" s="212"/>
-      <c r="F1" s="212"/>
-      <c r="G1" s="213"/>
+      <c r="B1" s="213"/>
+      <c r="C1" s="213"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="213"/>
+      <c r="F1" s="213"/>
+      <c r="G1" s="214"/>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="187" t="s">
@@ -42594,28 +42595,28 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="206" t="s">
+      <c r="A22" s="211" t="s">
         <v>1384</v>
       </c>
-      <c r="B22" s="206"/>
-      <c r="C22" s="206"/>
-      <c r="D22" s="206"/>
-      <c r="E22" s="206"/>
-      <c r="F22" s="206"/>
-      <c r="G22" s="206"/>
-      <c r="H22" s="206"/>
+      <c r="B22" s="211"/>
+      <c r="C22" s="211"/>
+      <c r="D22" s="211"/>
+      <c r="E22" s="211"/>
+      <c r="F22" s="211"/>
+      <c r="G22" s="211"/>
+      <c r="H22" s="211"/>
     </row>
     <row r="23" spans="1:8" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="222" t="s">
+      <c r="A23" s="220" t="s">
         <v>1435</v>
       </c>
-      <c r="B23" s="222"/>
-      <c r="C23" s="222"/>
-      <c r="D23" s="222"/>
-      <c r="E23" s="222"/>
-      <c r="F23" s="222"/>
-      <c r="G23" s="222"/>
-      <c r="H23" s="222"/>
+      <c r="B23" s="220"/>
+      <c r="C23" s="220"/>
+      <c r="D23" s="220"/>
+      <c r="E23" s="220"/>
+      <c r="F23" s="220"/>
+      <c r="G23" s="220"/>
+      <c r="H23" s="220"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -42648,15 +42649,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="225" t="s">
         <v>1385</v>
       </c>
-      <c r="B1" s="212"/>
-      <c r="C1" s="212"/>
-      <c r="D1" s="212"/>
-      <c r="E1" s="212"/>
-      <c r="F1" s="212"/>
-      <c r="G1" s="213"/>
+      <c r="B1" s="213"/>
+      <c r="C1" s="213"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="213"/>
+      <c r="F1" s="213"/>
+      <c r="G1" s="214"/>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="187" t="s">
@@ -43107,28 +43108,28 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="206" t="s">
+      <c r="A22" s="211" t="s">
         <v>1386</v>
       </c>
-      <c r="B22" s="206"/>
-      <c r="C22" s="206"/>
-      <c r="D22" s="206"/>
-      <c r="E22" s="206"/>
-      <c r="F22" s="206"/>
-      <c r="G22" s="206"/>
-      <c r="H22" s="206"/>
+      <c r="B22" s="211"/>
+      <c r="C22" s="211"/>
+      <c r="D22" s="211"/>
+      <c r="E22" s="211"/>
+      <c r="F22" s="211"/>
+      <c r="G22" s="211"/>
+      <c r="H22" s="211"/>
     </row>
     <row r="23" spans="1:8" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="222" t="s">
+      <c r="A23" s="220" t="s">
         <v>1436</v>
       </c>
-      <c r="B23" s="222"/>
-      <c r="C23" s="222"/>
-      <c r="D23" s="222"/>
-      <c r="E23" s="222"/>
-      <c r="F23" s="222"/>
-      <c r="G23" s="222"/>
-      <c r="H23" s="222"/>
+      <c r="B23" s="220"/>
+      <c r="C23" s="220"/>
+      <c r="D23" s="220"/>
+      <c r="E23" s="220"/>
+      <c r="F23" s="220"/>
+      <c r="G23" s="220"/>
+      <c r="H23" s="220"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -43161,15 +43162,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="225" t="s">
         <v>1387</v>
       </c>
-      <c r="B1" s="212"/>
-      <c r="C1" s="212"/>
-      <c r="D1" s="212"/>
-      <c r="E1" s="212"/>
-      <c r="F1" s="212"/>
-      <c r="G1" s="213"/>
+      <c r="B1" s="213"/>
+      <c r="C1" s="213"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="213"/>
+      <c r="F1" s="213"/>
+      <c r="G1" s="214"/>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="187" t="s">
@@ -43620,16 +43621,16 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="206" t="s">
+      <c r="A22" s="211" t="s">
         <v>1388</v>
       </c>
-      <c r="B22" s="206"/>
-      <c r="C22" s="206"/>
-      <c r="D22" s="206"/>
-      <c r="E22" s="206"/>
-      <c r="F22" s="206"/>
-      <c r="G22" s="206"/>
-      <c r="H22" s="206"/>
+      <c r="B22" s="211"/>
+      <c r="C22" s="211"/>
+      <c r="D22" s="211"/>
+      <c r="E22" s="211"/>
+      <c r="F22" s="211"/>
+      <c r="G22" s="211"/>
+      <c r="H22" s="211"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -43667,57 +43668,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="215" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
-      <c r="J1" s="210"/>
-      <c r="K1" s="210"/>
-      <c r="L1" s="210"/>
-      <c r="M1" s="210"/>
-      <c r="N1" s="210"/>
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
+      <c r="H1" s="215"/>
+      <c r="I1" s="215"/>
+      <c r="J1" s="215"/>
+      <c r="K1" s="215"/>
+      <c r="L1" s="215"/>
+      <c r="M1" s="215"/>
+      <c r="N1" s="215"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="202" t="s">
+      <c r="A2" s="204" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="202"/>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="202"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
-      <c r="I2" s="202"/>
-      <c r="J2" s="202"/>
-      <c r="K2" s="202"/>
-      <c r="L2" s="202"/>
-      <c r="M2" s="202"/>
-      <c r="N2" s="202"/>
+      <c r="B2" s="204"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
+      <c r="G2" s="204"/>
+      <c r="H2" s="204"/>
+      <c r="I2" s="204"/>
+      <c r="J2" s="204"/>
+      <c r="K2" s="204"/>
+      <c r="L2" s="204"/>
+      <c r="M2" s="204"/>
+      <c r="N2" s="204"/>
     </row>
     <row r="3" spans="1:14" ht="71.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="214" t="s">
+      <c r="A3" s="216" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="215"/>
-      <c r="C3" s="215"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="215"/>
-      <c r="F3" s="215"/>
-      <c r="G3" s="215"/>
-      <c r="H3" s="215"/>
-      <c r="I3" s="215"/>
-      <c r="J3" s="215"/>
-      <c r="K3" s="215"/>
-      <c r="L3" s="215"/>
-      <c r="M3" s="216"/>
+      <c r="B3" s="217"/>
+      <c r="C3" s="217"/>
+      <c r="D3" s="217"/>
+      <c r="E3" s="217"/>
+      <c r="F3" s="217"/>
+      <c r="G3" s="217"/>
+      <c r="H3" s="217"/>
+      <c r="I3" s="217"/>
+      <c r="J3" s="217"/>
+      <c r="K3" s="217"/>
+      <c r="L3" s="217"/>
+      <c r="M3" s="218"/>
     </row>
     <row r="4" spans="1:14" ht="35.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -43935,22 +43936,22 @@
       <c r="M10" s="59"/>
     </row>
     <row r="11" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="217" t="s">
+      <c r="A11" s="219" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="217"/>
-      <c r="C11" s="217"/>
-      <c r="D11" s="217"/>
-      <c r="E11" s="217"/>
-      <c r="F11" s="217"/>
-      <c r="G11" s="217"/>
-      <c r="H11" s="217"/>
-      <c r="I11" s="217"/>
-      <c r="J11" s="217"/>
-      <c r="K11" s="217"/>
-      <c r="L11" s="217"/>
-      <c r="M11" s="217"/>
-      <c r="N11" s="217"/>
+      <c r="B11" s="219"/>
+      <c r="C11" s="219"/>
+      <c r="D11" s="219"/>
+      <c r="E11" s="219"/>
+      <c r="F11" s="219"/>
+      <c r="G11" s="219"/>
+      <c r="H11" s="219"/>
+      <c r="I11" s="219"/>
+      <c r="J11" s="219"/>
+      <c r="K11" s="219"/>
+      <c r="L11" s="219"/>
+      <c r="M11" s="219"/>
+      <c r="N11" s="219"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -43990,57 +43991,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="215" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
-      <c r="J1" s="210"/>
-      <c r="K1" s="210"/>
-      <c r="L1" s="210"/>
-      <c r="M1" s="210"/>
-      <c r="N1" s="210"/>
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
+      <c r="H1" s="215"/>
+      <c r="I1" s="215"/>
+      <c r="J1" s="215"/>
+      <c r="K1" s="215"/>
+      <c r="L1" s="215"/>
+      <c r="M1" s="215"/>
+      <c r="N1" s="215"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="202" t="s">
+      <c r="A2" s="204" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="202"/>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="202"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
-      <c r="I2" s="202"/>
-      <c r="J2" s="202"/>
-      <c r="K2" s="202"/>
-      <c r="L2" s="202"/>
-      <c r="M2" s="202"/>
-      <c r="N2" s="202"/>
+      <c r="B2" s="204"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
+      <c r="G2" s="204"/>
+      <c r="H2" s="204"/>
+      <c r="I2" s="204"/>
+      <c r="J2" s="204"/>
+      <c r="K2" s="204"/>
+      <c r="L2" s="204"/>
+      <c r="M2" s="204"/>
+      <c r="N2" s="204"/>
     </row>
     <row r="3" spans="1:14" ht="71.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="214" t="s">
+      <c r="A3" s="216" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="215"/>
-      <c r="C3" s="215"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="215"/>
-      <c r="F3" s="215"/>
-      <c r="G3" s="215"/>
-      <c r="H3" s="215"/>
-      <c r="I3" s="215"/>
-      <c r="J3" s="215"/>
-      <c r="K3" s="215"/>
-      <c r="L3" s="215"/>
-      <c r="M3" s="216"/>
+      <c r="B3" s="217"/>
+      <c r="C3" s="217"/>
+      <c r="D3" s="217"/>
+      <c r="E3" s="217"/>
+      <c r="F3" s="217"/>
+      <c r="G3" s="217"/>
+      <c r="H3" s="217"/>
+      <c r="I3" s="217"/>
+      <c r="J3" s="217"/>
+      <c r="K3" s="217"/>
+      <c r="L3" s="217"/>
+      <c r="M3" s="218"/>
     </row>
     <row r="4" spans="1:14" ht="35.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -44064,10 +44065,10 @@
       <c r="G4" s="46">
         <v>17606880</v>
       </c>
-      <c r="H4" s="218">
+      <c r="H4" s="224">
         <v>51.9</v>
       </c>
-      <c r="I4" s="218"/>
+      <c r="I4" s="224"/>
       <c r="J4" s="4">
         <v>8888999</v>
       </c>
@@ -44091,8 +44092,8 @@
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="219"/>
-      <c r="I5" s="219"/>
+      <c r="H5" s="222"/>
+      <c r="I5" s="222"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
@@ -44120,10 +44121,10 @@
       <c r="G6" s="54">
         <v>11661936</v>
       </c>
-      <c r="H6" s="220">
+      <c r="H6" s="221">
         <v>34.4</v>
       </c>
-      <c r="I6" s="220"/>
+      <c r="I6" s="221"/>
       <c r="J6" s="9">
         <v>3992038</v>
       </c>
@@ -44147,8 +44148,8 @@
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
-      <c r="H7" s="219"/>
-      <c r="I7" s="219"/>
+      <c r="H7" s="222"/>
+      <c r="I7" s="222"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
@@ -44176,10 +44177,10 @@
       <c r="G8" s="51">
         <v>1679106</v>
       </c>
-      <c r="H8" s="220">
+      <c r="H8" s="221">
         <v>5</v>
       </c>
-      <c r="I8" s="220"/>
+      <c r="I8" s="221"/>
       <c r="J8" s="9">
         <v>437971</v>
       </c>
@@ -44215,10 +44216,10 @@
       <c r="G9" s="51">
         <v>5345567</v>
       </c>
-      <c r="H9" s="220">
+      <c r="H9" s="221">
         <v>15.8</v>
       </c>
-      <c r="I9" s="220"/>
+      <c r="I9" s="221"/>
       <c r="J9" s="9">
         <v>1282285</v>
       </c>
@@ -44242,67 +44243,72 @@
       <c r="E10" s="58"/>
       <c r="F10" s="58"/>
       <c r="G10" s="58"/>
-      <c r="H10" s="221"/>
-      <c r="I10" s="221"/>
+      <c r="H10" s="223"/>
+      <c r="I10" s="223"/>
       <c r="J10" s="58"/>
       <c r="K10" s="58"/>
       <c r="L10" s="58"/>
       <c r="M10" s="59"/>
     </row>
     <row r="11" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="206" t="s">
+      <c r="A11" s="211" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="206"/>
-      <c r="C11" s="206"/>
-      <c r="D11" s="206"/>
-      <c r="E11" s="206"/>
-      <c r="F11" s="206"/>
-      <c r="G11" s="206"/>
-      <c r="H11" s="206"/>
-      <c r="I11" s="206"/>
-      <c r="J11" s="206"/>
-      <c r="K11" s="206"/>
-      <c r="L11" s="206"/>
-      <c r="M11" s="206"/>
-      <c r="N11" s="206"/>
+      <c r="B11" s="211"/>
+      <c r="C11" s="211"/>
+      <c r="D11" s="211"/>
+      <c r="E11" s="211"/>
+      <c r="F11" s="211"/>
+      <c r="G11" s="211"/>
+      <c r="H11" s="211"/>
+      <c r="I11" s="211"/>
+      <c r="J11" s="211"/>
+      <c r="K11" s="211"/>
+      <c r="L11" s="211"/>
+      <c r="M11" s="211"/>
+      <c r="N11" s="211"/>
     </row>
     <row r="12" spans="1:14" ht="409.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="222" t="s">
+      <c r="A12" s="220" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="222"/>
-      <c r="C12" s="222"/>
-      <c r="D12" s="222"/>
-      <c r="E12" s="222"/>
-      <c r="F12" s="222"/>
-      <c r="G12" s="222"/>
-      <c r="H12" s="222"/>
+      <c r="B12" s="220"/>
+      <c r="C12" s="220"/>
+      <c r="D12" s="220"/>
+      <c r="E12" s="220"/>
+      <c r="F12" s="220"/>
+      <c r="G12" s="220"/>
+      <c r="H12" s="220"/>
     </row>
     <row r="13" spans="1:14" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="222"/>
-      <c r="B13" s="222"/>
-      <c r="C13" s="222"/>
-      <c r="D13" s="222"/>
-      <c r="E13" s="222"/>
-      <c r="F13" s="222"/>
-      <c r="G13" s="222"/>
-      <c r="H13" s="222"/>
+      <c r="A13" s="220"/>
+      <c r="B13" s="220"/>
+      <c r="C13" s="220"/>
+      <c r="D13" s="220"/>
+      <c r="E13" s="220"/>
+      <c r="F13" s="220"/>
+      <c r="G13" s="220"/>
+      <c r="H13" s="220"/>
     </row>
     <row r="14" spans="1:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="217" t="s">
+      <c r="A14" s="219" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="217"/>
-      <c r="C14" s="217"/>
-      <c r="D14" s="217"/>
-      <c r="E14" s="217"/>
-      <c r="F14" s="217"/>
-      <c r="G14" s="217"/>
-      <c r="H14" s="217"/>
+      <c r="B14" s="219"/>
+      <c r="C14" s="219"/>
+      <c r="D14" s="219"/>
+      <c r="E14" s="219"/>
+      <c r="F14" s="219"/>
+      <c r="G14" s="219"/>
+      <c r="H14" s="219"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
     <mergeCell ref="A11:N11"/>
     <mergeCell ref="A12:H13"/>
     <mergeCell ref="A14:H14"/>
@@ -44311,11 +44317,6 @@
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="H10:I10"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A3:M3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -44325,8 +44326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -44339,13 +44340,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="107.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="225" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="212"/>
-      <c r="C1" s="212"/>
-      <c r="D1" s="212"/>
-      <c r="E1" s="213"/>
+      <c r="B1" s="213"/>
+      <c r="C1" s="213"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="214"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65" t="s">
@@ -44527,23 +44528,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="217" t="s">
+      <c r="A1" s="219" t="s">
         <v>1399</v>
       </c>
-      <c r="B1" s="217"/>
-      <c r="C1" s="217"/>
-      <c r="D1" s="217"/>
-      <c r="E1" s="217"/>
-      <c r="F1" s="217"/>
+      <c r="B1" s="219"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="219"/>
+      <c r="F1" s="219"/>
     </row>
     <row r="2" spans="1:6" ht="107.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="211" t="s">
+      <c r="A2" s="225" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="212"/>
-      <c r="C2" s="212"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="213"/>
+      <c r="B2" s="213"/>
+      <c r="C2" s="213"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="214"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65" t="s">
